--- a/Code/Results/Cases/Case_5_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_39/res_bus/vm_pu.xlsx
@@ -421,37 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9896893079077405</v>
+        <v>1.031552215102199</v>
       </c>
       <c r="D2">
-        <v>1.009780608461903</v>
+        <v>1.048783957903501</v>
       </c>
       <c r="E2">
-        <v>0.9984914078630924</v>
+        <v>1.04276953981025</v>
       </c>
       <c r="F2">
-        <v>1.003374089746456</v>
+        <v>1.052823310498121</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041652810542891</v>
+        <v>1.061775975008849</v>
       </c>
       <c r="J2">
-        <v>1.012182845112219</v>
+        <v>1.052828487068053</v>
       </c>
       <c r="K2">
-        <v>1.021105345022354</v>
+        <v>1.059603051283557</v>
       </c>
       <c r="L2">
-        <v>1.009971799858175</v>
+        <v>1.05366352797384</v>
       </c>
       <c r="M2">
-        <v>1.014786617435598</v>
-      </c>
-      <c r="N2">
-        <v>1.005704707400593</v>
+        <v>1.063592701095127</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9977026758413</v>
+        <v>1.038350591068097</v>
       </c>
       <c r="D3">
-        <v>1.015713797724518</v>
+        <v>1.054227421800389</v>
       </c>
       <c r="E3">
-        <v>1.005308136963286</v>
+        <v>1.048582526461784</v>
       </c>
       <c r="F3">
-        <v>1.011117345783469</v>
+        <v>1.058906892709166</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044390340273222</v>
+        <v>1.064257545808098</v>
       </c>
       <c r="J3">
-        <v>1.018256164754725</v>
+        <v>1.057847705841196</v>
       </c>
       <c r="K3">
-        <v>1.026149489342855</v>
+        <v>1.064210464106414</v>
       </c>
       <c r="L3">
-        <v>1.015873546752655</v>
+        <v>1.058629347429765</v>
       </c>
       <c r="M3">
-        <v>1.021609927156814</v>
-      </c>
-      <c r="N3">
-        <v>1.005704707400593</v>
+        <v>1.068837698305138</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.002718976309239</v>
+        <v>1.04263148109018</v>
       </c>
       <c r="D4">
-        <v>1.019429741571505</v>
+        <v>1.057656866310367</v>
       </c>
       <c r="E4">
-        <v>1.009581142533777</v>
+        <v>1.052247972306407</v>
       </c>
       <c r="F4">
-        <v>1.015971580334934</v>
+        <v>1.062743197423546</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046088196734907</v>
+        <v>1.065806461674198</v>
       </c>
       <c r="J4">
-        <v>1.022053385195382</v>
+        <v>1.061004147740385</v>
       </c>
       <c r="K4">
-        <v>1.029299188732916</v>
+        <v>1.067105873665192</v>
       </c>
       <c r="L4">
-        <v>1.019565290760309</v>
+        <v>1.06175419699129</v>
       </c>
       <c r="M4">
-        <v>1.025880989611887</v>
-      </c>
-      <c r="N4">
-        <v>1.005704707400593</v>
+        <v>1.072139048505341</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004789849925343</v>
+        <v>1.044404308925053</v>
       </c>
       <c r="D5">
-        <v>1.020964088038665</v>
+        <v>1.059077422288516</v>
       </c>
       <c r="E5">
-        <v>1.011346445970732</v>
+        <v>1.053767068221995</v>
       </c>
       <c r="F5">
-        <v>1.017977151618418</v>
+        <v>1.064333160724007</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04678524810069</v>
+        <v>1.066444563181687</v>
       </c>
       <c r="J5">
-        <v>1.023619800144332</v>
+        <v>1.062310268739633</v>
       </c>
       <c r="K5">
-        <v>1.030597484659916</v>
+        <v>1.06830347026943</v>
       </c>
       <c r="L5">
-        <v>1.021088616065315</v>
+        <v>1.063047715466863</v>
       </c>
       <c r="M5">
-        <v>1.027644058783581</v>
-      </c>
-      <c r="N5">
-        <v>1.005704707400593</v>
+        <v>1.073505824008959</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.005135398694295</v>
+        <v>1.044700438842891</v>
       </c>
       <c r="D6">
-        <v>1.021220124828258</v>
+        <v>1.059314726695582</v>
       </c>
       <c r="E6">
-        <v>1.011641079458015</v>
+        <v>1.054020880228008</v>
       </c>
       <c r="F6">
-        <v>1.018311896009872</v>
+        <v>1.064598816726148</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046901329022426</v>
+        <v>1.066550952245782</v>
       </c>
       <c r="J6">
-        <v>1.023881102277245</v>
+        <v>1.062528377917968</v>
       </c>
       <c r="K6">
-        <v>1.030814000254064</v>
+        <v>1.068503426474211</v>
       </c>
       <c r="L6">
-        <v>1.021342754690984</v>
+        <v>1.06326374761452</v>
       </c>
       <c r="M6">
-        <v>1.02793823583446</v>
-      </c>
-      <c r="N6">
-        <v>1.005704707400593</v>
+        <v>1.073734102339214</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.00274679358253</v>
+        <v>1.042655273438383</v>
       </c>
       <c r="D7">
-        <v>1.01945035087276</v>
+        <v>1.057675929756045</v>
       </c>
       <c r="E7">
-        <v>1.009604850247808</v>
+        <v>1.052268355013402</v>
       </c>
       <c r="F7">
-        <v>1.015998514180013</v>
+        <v>1.062764530776684</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046097575404525</v>
+        <v>1.065815038657596</v>
       </c>
       <c r="J7">
-        <v>1.022074431063566</v>
+        <v>1.06102168081726</v>
       </c>
       <c r="K7">
-        <v>1.029316636266743</v>
+        <v>1.067121951975663</v>
       </c>
       <c r="L7">
-        <v>1.019585756033208</v>
+        <v>1.06177155904269</v>
       </c>
       <c r="M7">
-        <v>1.025904672957303</v>
-      </c>
-      <c r="N7">
-        <v>1.005704707400593</v>
+        <v>1.072157393067477</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9924339829284234</v>
+        <v>1.0338751022729</v>
       </c>
       <c r="D8">
-        <v>1.011812323926118</v>
+        <v>1.050643478103829</v>
       </c>
       <c r="E8">
-        <v>1.000824926569992</v>
+        <v>1.044754627447538</v>
       </c>
       <c r="F8">
-        <v>1.006024710358954</v>
+        <v>1.054900756551278</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042593742196212</v>
+        <v>1.062626738698696</v>
       </c>
       <c r="J8">
-        <v>1.014263959130618</v>
+        <v>1.054544302013304</v>
       </c>
       <c r="K8">
-        <v>1.022834632176629</v>
+        <v>1.061178514778796</v>
       </c>
       <c r="L8">
-        <v>1.01199373528408</v>
+        <v>1.055360664554942</v>
       </c>
       <c r="M8">
-        <v>1.017123686896879</v>
-      </c>
-      <c r="N8">
-        <v>1.005704707400593</v>
+        <v>1.065385076038929</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.972844129882814</v>
+        <v>1.017428981513546</v>
       </c>
       <c r="D9">
-        <v>0.9973255421538326</v>
+        <v>1.037489161244201</v>
       </c>
       <c r="E9">
-        <v>0.9841998917572119</v>
+        <v>1.030725117031744</v>
       </c>
       <c r="F9">
-        <v>0.9871406181252961</v>
+        <v>1.040219430419384</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035812657519438</v>
+        <v>1.056546729840877</v>
       </c>
       <c r="J9">
-        <v>0.9993936728347692</v>
+        <v>1.042380941403641</v>
       </c>
       <c r="K9">
-        <v>1.010462160115428</v>
+        <v>1.0500019362862</v>
       </c>
       <c r="L9">
-        <v>0.9975546241153812</v>
+        <v>1.043338620866107</v>
       </c>
       <c r="M9">
-        <v>1.00044583325024</v>
-      </c>
-      <c r="N9">
-        <v>1.005704707400593</v>
+        <v>1.05269201796789</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9586322896615783</v>
+        <v>1.005701704153861</v>
       </c>
       <c r="D10">
-        <v>0.9868426804898172</v>
+        <v>1.02812799136942</v>
       </c>
       <c r="E10">
-        <v>0.972184398458117</v>
+        <v>1.020757067555819</v>
       </c>
       <c r="F10">
-        <v>0.9734902487103999</v>
+        <v>1.029789353925289</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030813619350408</v>
+        <v>1.052141733770726</v>
       </c>
       <c r="J10">
-        <v>0.9885890840672754</v>
+        <v>1.033690916036813</v>
       </c>
       <c r="K10">
-        <v>1.001453628641832</v>
+        <v>1.042007302676768</v>
       </c>
       <c r="L10">
-        <v>0.9870747142380185</v>
+        <v>1.034761394593461</v>
       </c>
       <c r="M10">
-        <v>0.9883552293053045</v>
-      </c>
-      <c r="N10">
-        <v>1.005704707400593</v>
+        <v>1.043640805954406</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.952151462623176</v>
+        <v>1.00041489191628</v>
       </c>
       <c r="D11">
-        <v>0.9820717946797483</v>
+        <v>1.023913942248115</v>
       </c>
       <c r="E11">
-        <v>0.9667184060761508</v>
+        <v>1.016273349733127</v>
       </c>
       <c r="F11">
-        <v>0.9672791537913712</v>
+        <v>1.025098040734304</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028516642544639</v>
+        <v>1.050140380372219</v>
       </c>
       <c r="J11">
-        <v>0.9836597653823405</v>
+        <v>1.029770421079657</v>
       </c>
       <c r="K11">
-        <v>0.9973399200244415</v>
+        <v>1.038398541368469</v>
       </c>
       <c r="L11">
-        <v>0.9822964946593359</v>
+        <v>1.03089476410287</v>
       </c>
       <c r="M11">
-        <v>0.9828456931793018</v>
-      </c>
-      <c r="N11">
-        <v>1.005704707400593</v>
+        <v>1.039561673682097</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.949689619872668</v>
+        <v>0.9984170726308029</v>
       </c>
       <c r="D12">
-        <v>0.9802612252106764</v>
+        <v>1.02232257490264</v>
       </c>
       <c r="E12">
-        <v>0.9646443007497261</v>
+        <v>1.014580652164718</v>
       </c>
       <c r="F12">
-        <v>0.9649220228113506</v>
+        <v>1.023327002994618</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02764165031308</v>
+        <v>1.049381854473399</v>
       </c>
       <c r="J12">
-        <v>0.9817871175418398</v>
+        <v>1.028288576199116</v>
       </c>
       <c r="K12">
-        <v>0.9957766178587534</v>
+        <v>1.037034251392145</v>
       </c>
       <c r="L12">
-        <v>0.9804817228913597</v>
+        <v>1.029433741537901</v>
       </c>
       <c r="M12">
-        <v>0.9807535977147344</v>
-      </c>
-      <c r="N12">
-        <v>1.005704707400593</v>
+        <v>1.038020536582436</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.950220259983942</v>
+        <v>0.9988471995969587</v>
       </c>
       <c r="D13">
-        <v>0.9806514029181487</v>
+        <v>1.022665142638898</v>
       </c>
       <c r="E13">
-        <v>0.9650912604927476</v>
+        <v>1.014945010449668</v>
       </c>
       <c r="F13">
-        <v>0.9654299878672781</v>
+        <v>1.023708222868875</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027830359120248</v>
+        <v>1.049545263303227</v>
       </c>
       <c r="J13">
-        <v>0.9821907638020735</v>
+        <v>1.028607628432317</v>
       </c>
       <c r="K13">
-        <v>0.9961136067729575</v>
+        <v>1.03732800501515</v>
       </c>
       <c r="L13">
-        <v>0.9808728722205902</v>
+        <v>1.029748289398168</v>
       </c>
       <c r="M13">
-        <v>0.9812045014582744</v>
-      </c>
-      <c r="N13">
-        <v>1.005704707400593</v>
+        <v>1.038352324334388</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9519491138019319</v>
+        <v>1.000250463054853</v>
       </c>
       <c r="D14">
-        <v>0.981922939816489</v>
+        <v>1.023782943467826</v>
       </c>
       <c r="E14">
-        <v>0.9665478801442539</v>
+        <v>1.016133999493099</v>
       </c>
       <c r="F14">
-        <v>0.967085364884946</v>
+        <v>1.024952240569561</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028444772053623</v>
+        <v>1.050077995409214</v>
       </c>
       <c r="J14">
-        <v>0.9835058472598214</v>
+        <v>1.029648465352898</v>
       </c>
       <c r="K14">
-        <v>0.9972114376951871</v>
+        <v>1.038286265763104</v>
       </c>
       <c r="L14">
-        <v>0.9821473237719247</v>
+        <v>1.030774512561051</v>
       </c>
       <c r="M14">
-        <v>0.9826737182489037</v>
-      </c>
-      <c r="N14">
-        <v>1.005704707400593</v>
+        <v>1.039434824519221</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9530069085351552</v>
+        <v>1.001110460773795</v>
       </c>
       <c r="D15">
-        <v>0.9827011625061829</v>
+        <v>1.024468139189484</v>
       </c>
       <c r="E15">
-        <v>0.9674394104623408</v>
+        <v>1.016862898374352</v>
       </c>
       <c r="F15">
-        <v>0.9680985044860393</v>
+        <v>1.025714878313721</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028820382373588</v>
+        <v>1.050404191438773</v>
       </c>
       <c r="J15">
-        <v>0.9843104607992202</v>
+        <v>1.030286306395885</v>
       </c>
       <c r="K15">
-        <v>0.9978830644781602</v>
+        <v>1.038873467864812</v>
       </c>
       <c r="L15">
-        <v>0.9829271403235785</v>
+        <v>1.031403459466095</v>
       </c>
       <c r="M15">
-        <v>0.9835727641750481</v>
-      </c>
-      <c r="N15">
-        <v>1.005704707400593</v>
+        <v>1.040098286054242</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,40 +953,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9590550652390593</v>
+        <v>1.006047950246322</v>
       </c>
       <c r="D16">
-        <v>0.9871541281421163</v>
+        <v>1.028404118421929</v>
       </c>
       <c r="E16">
-        <v>0.9725412647640498</v>
+        <v>1.021050935900716</v>
       </c>
       <c r="F16">
-        <v>0.9738957263204272</v>
+        <v>1.03009683282742</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030963117141111</v>
+        <v>1.052272493057318</v>
       </c>
       <c r="J16">
-        <v>0.9889106144300984</v>
+        <v>1.033947626340037</v>
       </c>
       <c r="K16">
-        <v>1.001721885311567</v>
+        <v>1.042243561897553</v>
       </c>
       <c r="L16">
-        <v>0.9873864521553586</v>
+        <v>1.03501464085873</v>
       </c>
       <c r="M16">
-        <v>0.988714740194293</v>
-      </c>
-      <c r="N16">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.043907994722436</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +991,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9627577761773757</v>
+        <v>1.009087395043315</v>
       </c>
       <c r="D17">
-        <v>0.9898829138660219</v>
+        <v>1.030828744372434</v>
       </c>
       <c r="E17">
-        <v>0.9756682518522352</v>
+        <v>1.023631741478824</v>
       </c>
       <c r="F17">
-        <v>0.9774484986143109</v>
+        <v>1.032797194356384</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032270502474562</v>
+        <v>1.053418589675518</v>
       </c>
       <c r="J17">
-        <v>0.9917263742761425</v>
+        <v>1.036200782166745</v>
       </c>
       <c r="K17">
-        <v>1.004070688501798</v>
+        <v>1.044316995732392</v>
       </c>
       <c r="L17">
-        <v>0.9901167926706439</v>
+        <v>1.037237730732326</v>
       </c>
       <c r="M17">
-        <v>0.9918638390357893</v>
-      </c>
-      <c r="N17">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.046253610037295</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1029,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.964886362628493</v>
+        <v>1.010840300389923</v>
       </c>
       <c r="D18">
-        <v>0.9914524814884739</v>
+        <v>1.032227634941042</v>
       </c>
       <c r="E18">
-        <v>0.9774670937386127</v>
+        <v>1.025121074040771</v>
       </c>
       <c r="F18">
-        <v>0.9794921562072025</v>
+        <v>1.034355542077172</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03302045034494</v>
+        <v>1.054078097030592</v>
       </c>
       <c r="J18">
-        <v>0.9933448543672276</v>
+        <v>1.037499938272686</v>
       </c>
       <c r="K18">
-        <v>1.005420405582184</v>
+        <v>1.045512335882653</v>
       </c>
       <c r="L18">
-        <v>0.9916864502827526</v>
+        <v>1.038519829951109</v>
       </c>
       <c r="M18">
-        <v>0.993674527178059</v>
-      </c>
-      <c r="N18">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.047606482149996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1067,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.96560702536178</v>
+        <v>1.011434688436556</v>
       </c>
       <c r="D19">
-        <v>0.991984018825566</v>
+        <v>1.03270207222381</v>
       </c>
       <c r="E19">
-        <v>0.978076317683323</v>
+        <v>1.025626242289052</v>
       </c>
       <c r="F19">
-        <v>0.9801842747239897</v>
+        <v>1.034884123419797</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033274074626808</v>
+        <v>1.054301475978763</v>
       </c>
       <c r="J19">
-        <v>0.9938927710816566</v>
+        <v>1.037940415167266</v>
       </c>
       <c r="K19">
-        <v>1.005877273074697</v>
+        <v>1.045917581258063</v>
       </c>
       <c r="L19">
-        <v>0.9922178848311783</v>
+        <v>1.038954570609988</v>
       </c>
       <c r="M19">
-        <v>0.9942876165405609</v>
-      </c>
-      <c r="N19">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.04806523939741</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1105,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9623637682067308</v>
+        <v>1.008763373498568</v>
       </c>
       <c r="D20">
-        <v>0.9895924500640878</v>
+        <v>1.030570206384986</v>
       </c>
       <c r="E20">
-        <v>0.9753353782043278</v>
+        <v>1.023356515522239</v>
       </c>
       <c r="F20">
-        <v>0.9770703126877882</v>
+        <v>1.032509216303815</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032131551432035</v>
+        <v>1.053296561372007</v>
       </c>
       <c r="J20">
-        <v>0.991426769408928</v>
+        <v>1.035960611930947</v>
       </c>
       <c r="K20">
-        <v>1.003820806101028</v>
+        <v>1.044096002058277</v>
       </c>
       <c r="L20">
-        <v>0.9898262477792776</v>
+        <v>1.03700073622143</v>
       </c>
       <c r="M20">
-        <v>0.9915287028059644</v>
-      </c>
-      <c r="N20">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.046003542126635</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1143,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9514415640240834</v>
+        <v>0.9998382003680891</v>
       </c>
       <c r="D21">
-        <v>0.9815495972862079</v>
+        <v>1.023454515764705</v>
       </c>
       <c r="E21">
-        <v>0.9661201882608995</v>
+        <v>1.015784641856189</v>
       </c>
       <c r="F21">
-        <v>0.9665993227122204</v>
+        <v>1.024586713162098</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028264461132777</v>
+        <v>1.049921545607057</v>
       </c>
       <c r="J21">
-        <v>0.983119773669799</v>
+        <v>1.029342687915751</v>
       </c>
       <c r="K21">
-        <v>0.9968891569633898</v>
+        <v>1.038004754838791</v>
       </c>
       <c r="L21">
-        <v>0.9817731654012136</v>
+        <v>1.030473015500849</v>
       </c>
       <c r="M21">
-        <v>0.9822423683791337</v>
-      </c>
-      <c r="N21">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.03911678868487</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1181,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.944255223408293</v>
+        <v>0.9940279500389583</v>
       </c>
       <c r="D22">
-        <v>0.9762680442967988</v>
+        <v>1.018828562020488</v>
       </c>
       <c r="E22">
-        <v>0.9600702505391486</v>
+        <v>1.01086506223541</v>
       </c>
       <c r="F22">
-        <v>0.9597231693075337</v>
+        <v>1.019439505386933</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025705810072818</v>
+        <v>1.047711386443231</v>
       </c>
       <c r="J22">
-        <v>0.9776532350633825</v>
+        <v>1.025032518787338</v>
       </c>
       <c r="K22">
-        <v>0.9923247655928762</v>
+        <v>1.034036027158851</v>
       </c>
       <c r="L22">
-        <v>0.9764765111177599</v>
+        <v>1.026224309783931</v>
       </c>
       <c r="M22">
-        <v>0.9761370914924871</v>
-      </c>
-      <c r="N22">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.034635454035878</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1219,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9480971407500199</v>
+        <v>0.9971278842858953</v>
       </c>
       <c r="D23">
-        <v>0.9790905598249882</v>
+        <v>1.021295990706343</v>
       </c>
       <c r="E23">
-        <v>0.9633032994778428</v>
+        <v>1.013488839693002</v>
       </c>
       <c r="F23">
-        <v>0.9633979389935599</v>
+        <v>1.022184668545234</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027074979021091</v>
+        <v>1.048891760316487</v>
       </c>
       <c r="J23">
-        <v>0.9805757431733031</v>
+        <v>1.027332262446445</v>
       </c>
       <c r="K23">
-        <v>0.9947652189933051</v>
+        <v>1.036153728917332</v>
       </c>
       <c r="L23">
-        <v>0.979307924542797</v>
+        <v>1.028490998190956</v>
       </c>
       <c r="M23">
-        <v>0.979400543317683</v>
-      </c>
-      <c r="N23">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.037026149645575</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1257,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9625418992855512</v>
+        <v>1.008909846343841</v>
       </c>
       <c r="D24">
-        <v>0.9897237661402818</v>
+        <v>1.03068707587285</v>
       </c>
       <c r="E24">
-        <v>0.9754858666585915</v>
+        <v>1.023480927599481</v>
       </c>
       <c r="F24">
-        <v>0.9772412866928321</v>
+        <v>1.032639392721483</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032194376310029</v>
+        <v>1.053351728420384</v>
       </c>
       <c r="J24">
-        <v>0.9915622215310378</v>
+        <v>1.036069180956502</v>
       </c>
       <c r="K24">
-        <v>1.003933779691992</v>
+        <v>1.044195902903436</v>
       </c>
       <c r="L24">
-        <v>0.9899576030070597</v>
+        <v>1.037107868794527</v>
       </c>
       <c r="M24">
-        <v>0.9916802168600853</v>
-      </c>
-      <c r="N24">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.046116584144693</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9780954330259896</v>
+        <v>1.021806626688003</v>
       </c>
       <c r="D25">
-        <v>1.001205258219375</v>
+        <v>1.040987869450665</v>
       </c>
       <c r="E25">
-        <v>0.9886494598566867</v>
+        <v>1.034453799791512</v>
       </c>
       <c r="F25">
-        <v>0.9921949244614607</v>
+        <v>1.044121153044669</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037644333512865</v>
+        <v>1.058177274125932</v>
       </c>
       <c r="J25">
-        <v>1.003383148622057</v>
+        <v>1.045621755609839</v>
       </c>
       <c r="K25">
-        <v>1.013784892874761</v>
+        <v>1.052981558341757</v>
       </c>
       <c r="L25">
-        <v>1.001426571507907</v>
+        <v>1.046539812840025</v>
       </c>
       <c r="M25">
-        <v>1.004915624714592</v>
-      </c>
-      <c r="N25">
-        <v>1.005704707400593</v>
+        <v>1.056071086971557</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_39/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.031552215102199</v>
+        <v>1.007551759359026</v>
       </c>
       <c r="D2">
-        <v>1.048783957903501</v>
+        <v>1.024679556814557</v>
       </c>
       <c r="E2">
-        <v>1.04276953981025</v>
+        <v>1.010510230679907</v>
       </c>
       <c r="F2">
-        <v>1.052823310498121</v>
+        <v>0.9848042792019277</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.061775975008849</v>
+        <v>1.04778997806803</v>
       </c>
       <c r="J2">
-        <v>1.052828487068053</v>
+        <v>1.02950892106053</v>
       </c>
       <c r="K2">
-        <v>1.059603051283557</v>
+        <v>1.03580544867882</v>
       </c>
       <c r="L2">
-        <v>1.05366352797384</v>
+        <v>1.02182505777194</v>
       </c>
       <c r="M2">
-        <v>1.063592701095127</v>
+        <v>0.9964794540872615</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.038350591068097</v>
+        <v>1.015671116225085</v>
       </c>
       <c r="D3">
-        <v>1.054227421800389</v>
+        <v>1.03117451265943</v>
       </c>
       <c r="E3">
-        <v>1.048582526461784</v>
+        <v>1.017566493164583</v>
       </c>
       <c r="F3">
-        <v>1.058906892709166</v>
+        <v>0.9957293200944392</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.064257545808098</v>
+        <v>1.051444533097152</v>
       </c>
       <c r="J3">
-        <v>1.057847705841196</v>
+        <v>1.035743499782388</v>
       </c>
       <c r="K3">
-        <v>1.064210464106414</v>
+        <v>1.041423462402833</v>
       </c>
       <c r="L3">
-        <v>1.058629347429765</v>
+        <v>1.027979434937704</v>
       </c>
       <c r="M3">
-        <v>1.068837698305138</v>
+        <v>1.00641713829836</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.04263148109018</v>
+        <v>1.020732079167526</v>
       </c>
       <c r="D4">
-        <v>1.057656866310367</v>
+        <v>1.035224758514979</v>
       </c>
       <c r="E4">
-        <v>1.052247972306407</v>
+        <v>1.021964181356151</v>
       </c>
       <c r="F4">
-        <v>1.062743197423546</v>
+        <v>1.002531330353554</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.065806461674198</v>
+        <v>1.05370733995578</v>
       </c>
       <c r="J4">
-        <v>1.061004147740385</v>
+        <v>1.039619923543794</v>
       </c>
       <c r="K4">
-        <v>1.067105873665192</v>
+        <v>1.044915856439335</v>
       </c>
       <c r="L4">
-        <v>1.06175419699129</v>
+        <v>1.031804552770674</v>
       </c>
       <c r="M4">
-        <v>1.072139048505341</v>
+        <v>1.012599300155586</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.044404308925053</v>
+        <v>1.022816639172133</v>
       </c>
       <c r="D5">
-        <v>1.059077422288516</v>
+        <v>1.036893355305643</v>
       </c>
       <c r="E5">
-        <v>1.053767068221995</v>
+        <v>1.023775321252273</v>
       </c>
       <c r="F5">
-        <v>1.064333160724007</v>
+        <v>1.005331671091244</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.066444563181687</v>
+        <v>1.054635701509055</v>
       </c>
       <c r="J5">
-        <v>1.062310268739633</v>
+        <v>1.041214238701092</v>
       </c>
       <c r="K5">
-        <v>1.06830347026943</v>
+        <v>1.046352038847487</v>
       </c>
       <c r="L5">
-        <v>1.063047715466863</v>
+        <v>1.033377398268331</v>
       </c>
       <c r="M5">
-        <v>1.073505824008959</v>
+        <v>1.015143174120571</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.044700438842891</v>
+        <v>1.02316420408542</v>
       </c>
       <c r="D6">
-        <v>1.059314726695582</v>
+        <v>1.037171582942694</v>
       </c>
       <c r="E6">
-        <v>1.054020880228008</v>
+        <v>1.024077282820366</v>
       </c>
       <c r="F6">
-        <v>1.064598816726148</v>
+        <v>1.005798515752248</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.066550952245782</v>
+        <v>1.054790273436132</v>
       </c>
       <c r="J6">
-        <v>1.062528377917968</v>
+        <v>1.041479925253325</v>
       </c>
       <c r="K6">
-        <v>1.068503426474211</v>
+        <v>1.046591361460445</v>
       </c>
       <c r="L6">
-        <v>1.06326374761452</v>
+        <v>1.033639484694364</v>
       </c>
       <c r="M6">
-        <v>1.073734102339214</v>
+        <v>1.01556718652883</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.042655273438383</v>
+        <v>1.020760098553727</v>
       </c>
       <c r="D7">
-        <v>1.057675929756045</v>
+        <v>1.03524718554205</v>
       </c>
       <c r="E7">
-        <v>1.052268355013402</v>
+        <v>1.021988526575918</v>
       </c>
       <c r="F7">
-        <v>1.062764530776684</v>
+        <v>1.00256897547999</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.065815038657596</v>
+        <v>1.053719832997761</v>
       </c>
       <c r="J7">
-        <v>1.06102168081726</v>
+        <v>1.039641362670864</v>
       </c>
       <c r="K7">
-        <v>1.067121951975663</v>
+        <v>1.044935169893</v>
       </c>
       <c r="L7">
-        <v>1.06177155904269</v>
+        <v>1.031825704679359</v>
       </c>
       <c r="M7">
-        <v>1.072157393067477</v>
+        <v>1.012633502723167</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.0338751022729</v>
+        <v>1.010337624663073</v>
       </c>
       <c r="D8">
-        <v>1.050643478103829</v>
+        <v>1.026907624903113</v>
       </c>
       <c r="E8">
-        <v>1.044754627447538</v>
+        <v>1.012931418366415</v>
       </c>
       <c r="F8">
-        <v>1.054900756551278</v>
+        <v>0.9885548171276478</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.062626738698696</v>
+        <v>1.049047102524405</v>
       </c>
       <c r="J8">
-        <v>1.054544302013304</v>
+        <v>1.031650145910175</v>
       </c>
       <c r="K8">
-        <v>1.061178514778796</v>
+        <v>1.037735044891849</v>
       </c>
       <c r="L8">
-        <v>1.055360664554942</v>
+        <v>1.023939028711822</v>
       </c>
       <c r="M8">
-        <v>1.065385076038929</v>
+        <v>0.9998920855241609</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.017428981513546</v>
+        <v>0.9903357867568842</v>
       </c>
       <c r="D9">
-        <v>1.037489161244201</v>
+        <v>1.010922931435623</v>
       </c>
       <c r="E9">
-        <v>1.030725117031744</v>
+        <v>0.9955486834766666</v>
       </c>
       <c r="F9">
-        <v>1.040219430419384</v>
+        <v>0.9615658292896444</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.056546729840877</v>
+        <v>1.039955996458094</v>
       </c>
       <c r="J9">
-        <v>1.042380941403641</v>
+        <v>1.016234490443972</v>
       </c>
       <c r="K9">
-        <v>1.0500019362862</v>
+        <v>1.023841243083117</v>
       </c>
       <c r="L9">
-        <v>1.043338620866107</v>
+        <v>1.008714395402635</v>
       </c>
       <c r="M9">
-        <v>1.05269201796789</v>
+        <v>0.9753148533753847</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.005701704153861</v>
+        <v>0.9756376487877699</v>
       </c>
       <c r="D10">
-        <v>1.02812799136942</v>
+        <v>0.9991983217734981</v>
       </c>
       <c r="E10">
-        <v>1.020757067555819</v>
+        <v>0.9827809636615706</v>
       </c>
       <c r="F10">
-        <v>1.029789353925289</v>
+        <v>0.9416160044322002</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.052141733770726</v>
+        <v>1.033192580249128</v>
       </c>
       <c r="J10">
-        <v>1.033690916036813</v>
+        <v>1.004852346540459</v>
       </c>
       <c r="K10">
-        <v>1.042007302676768</v>
+        <v>1.013582065869906</v>
       </c>
       <c r="L10">
-        <v>1.034761394593461</v>
+        <v>0.997468232062925</v>
       </c>
       <c r="M10">
-        <v>1.043640805954406</v>
+        <v>0.9571259718381027</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.00041489191628</v>
+        <v>0.9688755205696913</v>
       </c>
       <c r="D11">
-        <v>1.023913942248115</v>
+        <v>0.9938114678287139</v>
       </c>
       <c r="E11">
-        <v>1.016273349733127</v>
+        <v>0.9769101500117952</v>
       </c>
       <c r="F11">
-        <v>1.025098040734304</v>
+        <v>0.9323943625096542</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050140380372219</v>
+        <v>1.030061680511134</v>
       </c>
       <c r="J11">
-        <v>1.029770421079657</v>
+        <v>0.9996029905548448</v>
       </c>
       <c r="K11">
-        <v>1.038398541368469</v>
+        <v>1.008851042140859</v>
       </c>
       <c r="L11">
-        <v>1.03089476410287</v>
+        <v>0.9922810513100961</v>
       </c>
       <c r="M11">
-        <v>1.039561673682097</v>
+        <v>0.948714707563487</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9984170726308029</v>
+        <v>0.9662961722352023</v>
       </c>
       <c r="D12">
-        <v>1.02232257490264</v>
+        <v>0.9917580041340316</v>
       </c>
       <c r="E12">
-        <v>1.014580652164718</v>
+        <v>0.974671449732328</v>
       </c>
       <c r="F12">
-        <v>1.023327002994618</v>
+        <v>0.9288686558832533</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049381854473399</v>
+        <v>1.028864574788565</v>
       </c>
       <c r="J12">
-        <v>1.028288576199116</v>
+        <v>0.9975987510334248</v>
       </c>
       <c r="K12">
-        <v>1.037034251392145</v>
+        <v>1.007044829802839</v>
       </c>
       <c r="L12">
-        <v>1.029433741537901</v>
+        <v>0.9903005425268562</v>
       </c>
       <c r="M12">
-        <v>1.038020536582436</v>
+        <v>0.9454984654974256</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9988471995969587</v>
+        <v>0.9668526527010725</v>
       </c>
       <c r="D13">
-        <v>1.022665142638898</v>
+        <v>0.9922009655751294</v>
       </c>
       <c r="E13">
-        <v>1.014945010449668</v>
+        <v>0.9751544039667515</v>
       </c>
       <c r="F13">
-        <v>1.023708222868875</v>
+        <v>0.9296297086687837</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049545263303227</v>
+        <v>1.029122971844758</v>
       </c>
       <c r="J13">
-        <v>1.028607628432317</v>
+        <v>0.9980312416358648</v>
       </c>
       <c r="K13">
-        <v>1.03732800501515</v>
+        <v>1.007434581866604</v>
       </c>
       <c r="L13">
-        <v>1.029748289398168</v>
+        <v>0.9907279113539369</v>
       </c>
       <c r="M13">
-        <v>1.038352324334388</v>
+        <v>0.946192731102926</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.000250463054853</v>
+        <v>0.9686637405427594</v>
       </c>
       <c r="D14">
-        <v>1.023782943467826</v>
+        <v>0.9936428385061613</v>
       </c>
       <c r="E14">
-        <v>1.016133999493099</v>
+        <v>0.9767263246283644</v>
       </c>
       <c r="F14">
-        <v>1.024952240569561</v>
+        <v>0.932105057594863</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050077995409214</v>
+        <v>1.029963448404012</v>
       </c>
       <c r="J14">
-        <v>1.029648465352898</v>
+        <v>0.9994384693428713</v>
       </c>
       <c r="K14">
-        <v>1.038286265763104</v>
+        <v>1.008702773413837</v>
       </c>
       <c r="L14">
-        <v>1.030774512561051</v>
+        <v>0.9921184777654312</v>
       </c>
       <c r="M14">
-        <v>1.039434824519221</v>
+        <v>0.948450802299289</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.001110460773795</v>
+        <v>0.9697703942724547</v>
       </c>
       <c r="D15">
-        <v>1.024468139189484</v>
+        <v>0.9945240627638389</v>
       </c>
       <c r="E15">
-        <v>1.016862898374352</v>
+        <v>0.9776869298401316</v>
       </c>
       <c r="F15">
-        <v>1.025714878313721</v>
+        <v>0.9336164734806295</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050404191438773</v>
+        <v>1.030476643608438</v>
       </c>
       <c r="J15">
-        <v>1.030286306395885</v>
+        <v>1.000298094830267</v>
       </c>
       <c r="K15">
-        <v>1.038873467864812</v>
+        <v>1.009477484872931</v>
       </c>
       <c r="L15">
-        <v>1.031403459466095</v>
+        <v>0.9929679268059837</v>
       </c>
       <c r="M15">
-        <v>1.040098286054242</v>
+        <v>0.9498295090656234</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.006047950246322</v>
+        <v>0.9760774138827063</v>
       </c>
       <c r="D16">
-        <v>1.028404118421929</v>
+        <v>0.9995488138159171</v>
       </c>
       <c r="E16">
-        <v>1.021050935900716</v>
+        <v>0.9831628437976387</v>
       </c>
       <c r="F16">
-        <v>1.03009683282742</v>
+        <v>0.9422146966341841</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.052272493057318</v>
+        <v>1.033395801059162</v>
       </c>
       <c r="J16">
-        <v>1.033947626340037</v>
+        <v>1.005193467721003</v>
       </c>
       <c r="K16">
-        <v>1.042243561897553</v>
+        <v>1.013889517635291</v>
       </c>
       <c r="L16">
-        <v>1.03501464085873</v>
+        <v>0.9978053075432587</v>
       </c>
       <c r="M16">
-        <v>1.043907994722436</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9576719920530576</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.009087395043315</v>
+        <v>0.9799220752518765</v>
       </c>
       <c r="D17">
-        <v>1.030828744372434</v>
+        <v>1.002613835368559</v>
       </c>
       <c r="E17">
-        <v>1.023631741478824</v>
+        <v>0.9865018198007343</v>
       </c>
       <c r="F17">
-        <v>1.032797194356384</v>
+        <v>0.9474437720789267</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.053418589675518</v>
+        <v>1.03517031550782</v>
       </c>
       <c r="J17">
-        <v>1.036200782166745</v>
+        <v>1.008174300065448</v>
       </c>
       <c r="K17">
-        <v>1.044316995732392</v>
+        <v>1.016576189274801</v>
       </c>
       <c r="L17">
-        <v>1.037237730732326</v>
+        <v>1.000750734030819</v>
       </c>
       <c r="M17">
-        <v>1.046253610037295</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9624406363323462</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.010840300389923</v>
+        <v>0.9821268262452838</v>
       </c>
       <c r="D18">
-        <v>1.032227634941042</v>
+        <v>1.004372155541242</v>
       </c>
       <c r="E18">
-        <v>1.025121074040771</v>
+        <v>0.9884168653328201</v>
       </c>
       <c r="F18">
-        <v>1.034355542077172</v>
+        <v>0.9504385149536345</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.054078097030592</v>
+        <v>1.036186129249115</v>
       </c>
       <c r="J18">
-        <v>1.037499938272686</v>
+        <v>1.00988249069604</v>
       </c>
       <c r="K18">
-        <v>1.045512335882653</v>
+        <v>1.018115844251962</v>
       </c>
       <c r="L18">
-        <v>1.038519829951109</v>
+        <v>1.002438579743047</v>
       </c>
       <c r="M18">
-        <v>1.047606482149996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9651713387195313</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.011434688436556</v>
+        <v>0.982872396366501</v>
       </c>
       <c r="D19">
-        <v>1.03270207222381</v>
+        <v>1.004966864499848</v>
       </c>
       <c r="E19">
-        <v>1.025626242289052</v>
+        <v>0.9890645103284768</v>
       </c>
       <c r="F19">
-        <v>1.034884123419797</v>
+        <v>0.9514506129890649</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.054301475978763</v>
+        <v>1.03652933640029</v>
       </c>
       <c r="J19">
-        <v>1.037940415167266</v>
+        <v>1.010459939250746</v>
       </c>
       <c r="K19">
-        <v>1.045917581258063</v>
+        <v>1.018636324278189</v>
       </c>
       <c r="L19">
-        <v>1.038954570609988</v>
+        <v>1.003009139502152</v>
       </c>
       <c r="M19">
-        <v>1.04806523939741</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9660941387393712</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.008763373498568</v>
+        <v>0.9795135385941318</v>
       </c>
       <c r="D20">
-        <v>1.030570206384986</v>
+        <v>1.002288073770889</v>
       </c>
       <c r="E20">
-        <v>1.023356515522239</v>
+        <v>0.9861469869122312</v>
       </c>
       <c r="F20">
-        <v>1.032509216303815</v>
+        <v>0.9468885443726307</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.053296561372007</v>
+        <v>1.03498194087937</v>
       </c>
       <c r="J20">
-        <v>1.035960611930947</v>
+        <v>1.007857678501608</v>
       </c>
       <c r="K20">
-        <v>1.044096002058277</v>
+        <v>1.016290809124288</v>
       </c>
       <c r="L20">
-        <v>1.03700073622143</v>
+        <v>1.000437878547248</v>
       </c>
       <c r="M20">
-        <v>1.046003542126635</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9619343326499841</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9998382003680891</v>
+        <v>0.968132356891615</v>
       </c>
       <c r="D21">
-        <v>1.023454515764705</v>
+        <v>0.9932197472072949</v>
       </c>
       <c r="E21">
-        <v>1.015784641856189</v>
+        <v>0.9762650941654097</v>
       </c>
       <c r="F21">
-        <v>1.024586713162098</v>
+        <v>0.9313790159372315</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049921545607057</v>
+        <v>1.029716925604808</v>
       </c>
       <c r="J21">
-        <v>1.029342687915751</v>
+        <v>0.9990256333347056</v>
       </c>
       <c r="K21">
-        <v>1.038004754838791</v>
+        <v>1.008330722272641</v>
       </c>
       <c r="L21">
-        <v>1.030473015500849</v>
+        <v>0.9917105292177281</v>
       </c>
       <c r="M21">
-        <v>1.03911678868487</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9477884985670988</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9940279500389583</v>
+        <v>0.9605803843440235</v>
       </c>
       <c r="D22">
-        <v>1.018828562020488</v>
+        <v>0.987210233714388</v>
       </c>
       <c r="E22">
-        <v>1.01086506223541</v>
+        <v>0.9697119966851778</v>
       </c>
       <c r="F22">
-        <v>1.019439505386933</v>
+        <v>0.9210383428360507</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047711386443231</v>
+        <v>1.02620657400173</v>
       </c>
       <c r="J22">
-        <v>1.025032518787338</v>
+        <v>0.993153826724534</v>
       </c>
       <c r="K22">
-        <v>1.034036027158851</v>
+        <v>1.003039388707835</v>
       </c>
       <c r="L22">
-        <v>1.026224309783931</v>
+        <v>0.9859083284308169</v>
       </c>
       <c r="M22">
-        <v>1.034635454035878</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9383550018302107</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9971278842858953</v>
+        <v>0.9646244255108315</v>
       </c>
       <c r="D23">
-        <v>1.021295990706343</v>
+        <v>0.9904274931722584</v>
       </c>
       <c r="E23">
-        <v>1.013488839693002</v>
+        <v>0.9732206997945594</v>
       </c>
       <c r="F23">
-        <v>1.022184668545234</v>
+        <v>0.926580990501177</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048891760316487</v>
+        <v>1.028087897980258</v>
       </c>
       <c r="J23">
-        <v>1.027332262446445</v>
+        <v>0.9962992051992127</v>
       </c>
       <c r="K23">
-        <v>1.036153728917332</v>
+        <v>1.005873727966543</v>
       </c>
       <c r="L23">
-        <v>1.028490998190956</v>
+        <v>0.9890163919366265</v>
       </c>
       <c r="M23">
-        <v>1.037026149645575</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9434115192535978</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.008909846343841</v>
+        <v>0.9796982548825561</v>
       </c>
       <c r="D24">
-        <v>1.03068707587285</v>
+        <v>1.002435361999531</v>
       </c>
       <c r="E24">
-        <v>1.023480927599481</v>
+        <v>0.9863074206397956</v>
       </c>
       <c r="F24">
-        <v>1.032639392721483</v>
+        <v>0.947139597792702</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.053351728420384</v>
+        <v>1.035067118416364</v>
       </c>
       <c r="J24">
-        <v>1.036069180956502</v>
+        <v>1.008000839888134</v>
       </c>
       <c r="K24">
-        <v>1.044195902903436</v>
+        <v>1.01641984450598</v>
       </c>
       <c r="L24">
-        <v>1.037107868794527</v>
+        <v>1.000579337266654</v>
       </c>
       <c r="M24">
-        <v>1.046116584144693</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9621632655301414</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.021806626688003</v>
+        <v>0.995725246454329</v>
       </c>
       <c r="D25">
-        <v>1.040987869450665</v>
+        <v>1.015226962758229</v>
       </c>
       <c r="E25">
-        <v>1.034453799791512</v>
+        <v>1.000231968034891</v>
       </c>
       <c r="F25">
-        <v>1.044121153044669</v>
+        <v>0.9688534621351882</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.058177274125932</v>
+        <v>1.042419647689176</v>
       </c>
       <c r="J25">
-        <v>1.045621755609839</v>
+        <v>1.020397334517972</v>
       </c>
       <c r="K25">
-        <v>1.052981558341757</v>
+        <v>1.027593410500316</v>
       </c>
       <c r="L25">
-        <v>1.046539812840025</v>
+        <v>1.012826684065353</v>
       </c>
       <c r="M25">
-        <v>1.056071086971557</v>
+        <v>0.9819553303529561</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_39/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.007551759359026</v>
+        <v>1.045608419067008</v>
       </c>
       <c r="D2">
-        <v>1.024679556814557</v>
+        <v>1.048080382523962</v>
       </c>
       <c r="E2">
-        <v>1.010510230679907</v>
+        <v>1.043079053674487</v>
       </c>
       <c r="F2">
-        <v>0.9848042792019277</v>
+        <v>1.044447821620053</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04778997806803</v>
+        <v>1.044609206762441</v>
       </c>
       <c r="J2">
-        <v>1.02950892106053</v>
+        <v>1.050667243542236</v>
       </c>
       <c r="K2">
-        <v>1.03580544867882</v>
+        <v>1.050841225952017</v>
       </c>
       <c r="L2">
-        <v>1.02182505777194</v>
+        <v>1.045853932001869</v>
       </c>
       <c r="M2">
-        <v>0.9964794540872615</v>
+        <v>1.047218844371849</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.015671116225085</v>
+        <v>1.047079355999303</v>
       </c>
       <c r="D3">
-        <v>1.03117451265943</v>
+        <v>1.049255227248778</v>
       </c>
       <c r="E3">
-        <v>1.017566493164583</v>
+        <v>1.044372084595887</v>
       </c>
       <c r="F3">
-        <v>0.9957293200944392</v>
+        <v>1.046546796370809</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051444533097152</v>
+        <v>1.045159702223752</v>
       </c>
       <c r="J3">
-        <v>1.035743499782388</v>
+        <v>1.051783338939877</v>
       </c>
       <c r="K3">
-        <v>1.041423462402833</v>
+        <v>1.051827104596299</v>
       </c>
       <c r="L3">
-        <v>1.027979434937704</v>
+        <v>1.046956663991478</v>
       </c>
       <c r="M3">
-        <v>1.00641713829836</v>
+        <v>1.049125703094741</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.020732079167526</v>
+        <v>1.048028127108215</v>
       </c>
       <c r="D4">
-        <v>1.035224758514979</v>
+        <v>1.050012815318832</v>
       </c>
       <c r="E4">
-        <v>1.021964181356151</v>
+        <v>1.045205566982232</v>
       </c>
       <c r="F4">
-        <v>1.002531330353554</v>
+        <v>1.047901574026912</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05370733995578</v>
+        <v>1.045513029140961</v>
       </c>
       <c r="J4">
-        <v>1.039619923543794</v>
+        <v>1.052502111585902</v>
       </c>
       <c r="K4">
-        <v>1.044915856439335</v>
+        <v>1.052461852011942</v>
       </c>
       <c r="L4">
-        <v>1.031804552770674</v>
+        <v>1.047666472505622</v>
       </c>
       <c r="M4">
-        <v>1.012599300155586</v>
+        <v>1.050355808828114</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.022816639172133</v>
+        <v>1.048426278985594</v>
       </c>
       <c r="D5">
-        <v>1.036893355305643</v>
+        <v>1.0503306884309</v>
       </c>
       <c r="E5">
-        <v>1.023775321252273</v>
+        <v>1.045555208946008</v>
       </c>
       <c r="F5">
-        <v>1.005331671091244</v>
+        <v>1.048470330578876</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054635701509055</v>
+        <v>1.045660883694322</v>
       </c>
       <c r="J5">
-        <v>1.041214238701092</v>
+        <v>1.052803475951623</v>
       </c>
       <c r="K5">
-        <v>1.046352038847487</v>
+        <v>1.052727946741115</v>
       </c>
       <c r="L5">
-        <v>1.033377398268331</v>
+        <v>1.047963992580434</v>
       </c>
       <c r="M5">
-        <v>1.015143174120571</v>
+        <v>1.050872065333887</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.02316420408542</v>
+        <v>1.048493089071075</v>
       </c>
       <c r="D6">
-        <v>1.037171582942694</v>
+        <v>1.050384024812593</v>
       </c>
       <c r="E6">
-        <v>1.024077282820366</v>
+        <v>1.045613871467583</v>
       </c>
       <c r="F6">
-        <v>1.005798515752248</v>
+        <v>1.048565781495503</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054790273436132</v>
+        <v>1.045685669168332</v>
       </c>
       <c r="J6">
-        <v>1.041479925253325</v>
+        <v>1.052854029284223</v>
       </c>
       <c r="K6">
-        <v>1.046591361460445</v>
+        <v>1.052772581306626</v>
       </c>
       <c r="L6">
-        <v>1.033639484694364</v>
+        <v>1.04801389600083</v>
       </c>
       <c r="M6">
-        <v>1.01556718652883</v>
+        <v>1.050958696051607</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.020760098553727</v>
+        <v>1.048033450013649</v>
       </c>
       <c r="D7">
-        <v>1.03524718554205</v>
+        <v>1.050017065167761</v>
       </c>
       <c r="E7">
-        <v>1.021988526575918</v>
+        <v>1.045210241864725</v>
       </c>
       <c r="F7">
-        <v>1.00256897547999</v>
+        <v>1.047909176864928</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053719832997761</v>
+        <v>1.045515007461984</v>
       </c>
       <c r="J7">
-        <v>1.039641362670864</v>
+        <v>1.052506141592488</v>
       </c>
       <c r="K7">
-        <v>1.044935169893</v>
+        <v>1.052465410531197</v>
       </c>
       <c r="L7">
-        <v>1.031825704679359</v>
+        <v>1.047670451442131</v>
       </c>
       <c r="M7">
-        <v>1.012633502723167</v>
+        <v>1.05036271050581</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.010337624663073</v>
+        <v>1.046106162565492</v>
       </c>
       <c r="D8">
-        <v>1.026907624903113</v>
+        <v>1.048477973780897</v>
       </c>
       <c r="E8">
-        <v>1.012931418366415</v>
+        <v>1.043516707668984</v>
       </c>
       <c r="F8">
-        <v>0.9885548171276478</v>
+        <v>1.045157897029927</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049047102524405</v>
+        <v>1.044795849028816</v>
       </c>
       <c r="J8">
-        <v>1.031650145910175</v>
+        <v>1.051045146544226</v>
       </c>
       <c r="K8">
-        <v>1.037735044891849</v>
+        <v>1.051175072365079</v>
       </c>
       <c r="L8">
-        <v>1.023939028711822</v>
+        <v>1.0462273845262</v>
       </c>
       <c r="M8">
-        <v>0.9998920855241609</v>
+        <v>1.047864066734267</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9903357867568842</v>
+        <v>1.04268632388365</v>
       </c>
       <c r="D9">
-        <v>1.010922931435623</v>
+        <v>1.045745457720053</v>
       </c>
       <c r="E9">
-        <v>0.9955486834766666</v>
+        <v>1.040507522666601</v>
       </c>
       <c r="F9">
-        <v>0.9615658292896444</v>
+        <v>1.040282770532945</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039955996458094</v>
+        <v>1.043506290413033</v>
       </c>
       <c r="J9">
-        <v>1.016234490443972</v>
+        <v>1.048444071644782</v>
       </c>
       <c r="K9">
-        <v>1.023841243083117</v>
+        <v>1.048876568890983</v>
       </c>
       <c r="L9">
-        <v>1.008714395402635</v>
+        <v>1.043655466099146</v>
       </c>
       <c r="M9">
-        <v>0.9753148533753847</v>
+        <v>1.043431440366485</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9756376487877699</v>
+        <v>1.040389706708623</v>
       </c>
       <c r="D10">
-        <v>0.9991983217734981</v>
+        <v>1.043909456219709</v>
       </c>
       <c r="E10">
-        <v>0.9827809636615706</v>
+        <v>1.038483925979756</v>
       </c>
       <c r="F10">
-        <v>0.9416160044322002</v>
+        <v>1.037013136474425</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033192580249128</v>
+        <v>1.042631234397535</v>
       </c>
       <c r="J10">
-        <v>1.004852346540459</v>
+        <v>1.046691487209429</v>
       </c>
       <c r="K10">
-        <v>1.013582065869906</v>
+        <v>1.047327031238536</v>
       </c>
       <c r="L10">
-        <v>0.997468232062925</v>
+        <v>1.041920673191321</v>
       </c>
       <c r="M10">
-        <v>0.9571259718381027</v>
+        <v>1.040455119132723</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9688755205696913</v>
+        <v>1.039391103837639</v>
       </c>
       <c r="D11">
-        <v>0.9938114678287139</v>
+        <v>1.043110919184226</v>
       </c>
       <c r="E11">
-        <v>0.9769101500117952</v>
+        <v>1.037603386859923</v>
       </c>
       <c r="F11">
-        <v>0.9323943625096542</v>
+        <v>1.035592402469881</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030061680511134</v>
+        <v>1.042248605766153</v>
       </c>
       <c r="J11">
-        <v>0.9996029905548448</v>
+        <v>1.04592805898617</v>
       </c>
       <c r="K11">
-        <v>1.008851042140859</v>
+        <v>1.046651860020344</v>
       </c>
       <c r="L11">
-        <v>0.9922810513100961</v>
+        <v>1.041164556553121</v>
       </c>
       <c r="M11">
-        <v>0.948714707563487</v>
+        <v>1.039161017715103</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9662961722352023</v>
+        <v>1.039019539173341</v>
       </c>
       <c r="D12">
-        <v>0.9917580041340316</v>
+        <v>1.042813764316127</v>
       </c>
       <c r="E12">
-        <v>0.974671449732328</v>
+        <v>1.037275654665207</v>
       </c>
       <c r="F12">
-        <v>0.9288686558832533</v>
+        <v>1.035063906518435</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028864574788565</v>
+        <v>1.042105914145073</v>
       </c>
       <c r="J12">
-        <v>0.9975987510334248</v>
+        <v>1.045643792029412</v>
       </c>
       <c r="K12">
-        <v>1.007044829802839</v>
+        <v>1.046400427866246</v>
       </c>
       <c r="L12">
-        <v>0.9903005425268562</v>
+        <v>1.040882946347631</v>
       </c>
       <c r="M12">
-        <v>0.9454984654974256</v>
+        <v>1.038679504740738</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9668526527010725</v>
+        <v>1.039099270222074</v>
       </c>
       <c r="D13">
-        <v>0.9922009655751294</v>
+        <v>1.042877529784636</v>
       </c>
       <c r="E13">
-        <v>0.9751544039667515</v>
+        <v>1.037345984452274</v>
       </c>
       <c r="F13">
-        <v>0.9296297086687837</v>
+        <v>1.035177306065784</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029122971844758</v>
+        <v>1.04213654772035</v>
       </c>
       <c r="J13">
-        <v>0.9980312416358648</v>
+        <v>1.045704799941843</v>
       </c>
       <c r="K13">
-        <v>1.007434581866604</v>
+        <v>1.046454390211755</v>
       </c>
       <c r="L13">
-        <v>0.9907279113539369</v>
+        <v>1.040943387054764</v>
       </c>
       <c r="M13">
-        <v>0.946192731102926</v>
+        <v>1.038782828688911</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9686637405427594</v>
+        <v>1.039360403312709</v>
       </c>
       <c r="D14">
-        <v>0.9936428385061613</v>
+        <v>1.043086367406514</v>
       </c>
       <c r="E14">
-        <v>0.9767263246283644</v>
+        <v>1.037576309972281</v>
       </c>
       <c r="F14">
-        <v>0.932105057594863</v>
+        <v>1.03554873273601</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029963448404012</v>
+        <v>1.042236822424938</v>
       </c>
       <c r="J14">
-        <v>0.9994384693428713</v>
+        <v>1.045904575656244</v>
       </c>
       <c r="K14">
-        <v>1.008702773413837</v>
+        <v>1.046631089750366</v>
       </c>
       <c r="L14">
-        <v>0.9921184777654312</v>
+        <v>1.04114129403758</v>
       </c>
       <c r="M14">
-        <v>0.948450802299289</v>
+        <v>1.039121232697872</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9697703942724547</v>
+        <v>1.039521210883129</v>
       </c>
       <c r="D15">
-        <v>0.9945240627638389</v>
+        <v>1.043214966907615</v>
       </c>
       <c r="E15">
-        <v>0.9776869298401316</v>
+        <v>1.037718133163988</v>
       </c>
       <c r="F15">
-        <v>0.9336164734806295</v>
+        <v>1.03577747785096</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030476643608438</v>
+        <v>1.042298529730845</v>
       </c>
       <c r="J15">
-        <v>1.000298094830267</v>
+        <v>1.0460275715007</v>
       </c>
       <c r="K15">
-        <v>1.009477484872931</v>
+        <v>1.04673987457171</v>
       </c>
       <c r="L15">
-        <v>0.9929679268059837</v>
+        <v>1.041263130659057</v>
       </c>
       <c r="M15">
-        <v>0.9498295090656234</v>
+        <v>1.039329624370229</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9760774138827063</v>
+        <v>1.040455891908478</v>
       </c>
       <c r="D16">
-        <v>0.9995488138159171</v>
+        <v>1.043962377020215</v>
       </c>
       <c r="E16">
-        <v>0.9831628437976387</v>
+        <v>1.038542272542003</v>
       </c>
       <c r="F16">
-        <v>0.9422146966341841</v>
+        <v>1.037107319114064</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033395801059162</v>
+        <v>1.042656549162241</v>
       </c>
       <c r="J16">
-        <v>1.005193467721003</v>
+        <v>1.046742056550455</v>
       </c>
       <c r="K16">
-        <v>1.013889517635291</v>
+        <v>1.047371750483498</v>
       </c>
       <c r="L16">
-        <v>0.9978053075432587</v>
+        <v>1.041970749007942</v>
       </c>
       <c r="M16">
-        <v>0.9576719920530576</v>
+        <v>1.040540889892405</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9799220752518765</v>
+        <v>1.041041070189849</v>
       </c>
       <c r="D17">
-        <v>1.002613835368559</v>
+        <v>1.044430252893771</v>
       </c>
       <c r="E17">
-        <v>0.9865018198007343</v>
+        <v>1.039058070460103</v>
       </c>
       <c r="F17">
-        <v>0.9474437720789267</v>
+        <v>1.037940146444069</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03517031550782</v>
+        <v>1.042880123548029</v>
       </c>
       <c r="J17">
-        <v>1.008174300065448</v>
+        <v>1.047189007850369</v>
       </c>
       <c r="K17">
-        <v>1.016576189274801</v>
+        <v>1.047766974499816</v>
       </c>
       <c r="L17">
-        <v>1.000750734030819</v>
+        <v>1.042413287871234</v>
       </c>
       <c r="M17">
-        <v>0.9624406363323462</v>
+        <v>1.041299239228587</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9821268262452838</v>
+        <v>1.041381995165399</v>
       </c>
       <c r="D18">
-        <v>1.004372155541242</v>
+        <v>1.044702816552199</v>
       </c>
       <c r="E18">
-        <v>0.9884168653328201</v>
+        <v>1.039358511879345</v>
       </c>
       <c r="F18">
-        <v>0.9504385149536345</v>
+        <v>1.038425443706658</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036186129249115</v>
+        <v>1.043010171900553</v>
       </c>
       <c r="J18">
-        <v>1.00988249069604</v>
+        <v>1.047449269056848</v>
       </c>
       <c r="K18">
-        <v>1.018115844251962</v>
+        <v>1.047997096401108</v>
       </c>
       <c r="L18">
-        <v>1.002438579743047</v>
+        <v>1.042670937541212</v>
       </c>
       <c r="M18">
-        <v>0.9651713387195313</v>
+        <v>1.041741058524147</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.982872396366501</v>
+        <v>1.041498174448038</v>
       </c>
       <c r="D19">
-        <v>1.004966864499848</v>
+        <v>1.044795696316228</v>
       </c>
       <c r="E19">
-        <v>0.9890645103284768</v>
+        <v>1.03946088469039</v>
       </c>
       <c r="F19">
-        <v>0.9514506129890649</v>
+        <v>1.038590837458625</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03652933640029</v>
+        <v>1.043054454375422</v>
       </c>
       <c r="J19">
-        <v>1.010459939250746</v>
+        <v>1.04753793749855</v>
       </c>
       <c r="K19">
-        <v>1.018636324278189</v>
+        <v>1.048075493554177</v>
       </c>
       <c r="L19">
-        <v>1.003009139502152</v>
+        <v>1.04275870910367</v>
       </c>
       <c r="M19">
-        <v>0.9660941387393712</v>
+        <v>1.041891621205674</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9795135385941318</v>
+        <v>1.040978327542355</v>
       </c>
       <c r="D20">
-        <v>1.002288073770889</v>
+        <v>1.044380089534074</v>
       </c>
       <c r="E20">
-        <v>0.9861469869122312</v>
+        <v>1.03900277322479</v>
       </c>
       <c r="F20">
-        <v>0.9468885443726307</v>
+        <v>1.037850841466935</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03498194087937</v>
+        <v>1.042856173294768</v>
       </c>
       <c r="J20">
-        <v>1.007857678501608</v>
+        <v>1.047141099592598</v>
       </c>
       <c r="K20">
-        <v>1.016290809124288</v>
+        <v>1.047724612732405</v>
       </c>
       <c r="L20">
-        <v>1.000437878547248</v>
+        <v>1.042365856940994</v>
       </c>
       <c r="M20">
-        <v>0.9619343326499841</v>
+        <v>1.041217928765522</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.968132356891615</v>
+        <v>1.039283523891498</v>
       </c>
       <c r="D21">
-        <v>0.9932197472072949</v>
+        <v>1.043024885004104</v>
       </c>
       <c r="E21">
-        <v>0.9762650941654097</v>
+        <v>1.037508503196552</v>
       </c>
       <c r="F21">
-        <v>0.9313790159372315</v>
+        <v>1.035439378369131</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029716925604808</v>
+        <v>1.042207309712374</v>
       </c>
       <c r="J21">
-        <v>0.9990256333347056</v>
+        <v>1.045845765994136</v>
       </c>
       <c r="K21">
-        <v>1.008330722272641</v>
+        <v>1.046579073991724</v>
       </c>
       <c r="L21">
-        <v>0.9917105292177281</v>
+        <v>1.041083036303017</v>
       </c>
       <c r="M21">
-        <v>0.9477884985670988</v>
+        <v>1.039021604154995</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9605803843440235</v>
+        <v>1.038214228281512</v>
       </c>
       <c r="D22">
-        <v>0.987210233714388</v>
+        <v>1.042169668734791</v>
       </c>
       <c r="E22">
-        <v>0.9697119966851778</v>
+        <v>1.036565166579317</v>
       </c>
       <c r="F22">
-        <v>0.9210383428360507</v>
+        <v>1.033918715264841</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02620657400173</v>
+        <v>1.04179606345203</v>
       </c>
       <c r="J22">
-        <v>0.993153826724534</v>
+        <v>1.045027306806335</v>
       </c>
       <c r="K22">
-        <v>1.003039388707835</v>
+        <v>1.04585509975833</v>
       </c>
       <c r="L22">
-        <v>0.9859083284308169</v>
+        <v>1.040272102514071</v>
       </c>
       <c r="M22">
-        <v>0.9383550018302107</v>
+        <v>1.037635895793615</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9646244255108315</v>
+        <v>1.038781438468125</v>
       </c>
       <c r="D23">
-        <v>0.9904274931722584</v>
+        <v>1.042623337042273</v>
       </c>
       <c r="E23">
-        <v>0.9732206997945594</v>
+        <v>1.037065614723797</v>
       </c>
       <c r="F23">
-        <v>0.926580990501177</v>
+        <v>1.034725281276494</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028087897980258</v>
+        <v>1.042014386099495</v>
       </c>
       <c r="J23">
-        <v>0.9962992051992127</v>
+        <v>1.045461573864114</v>
       </c>
       <c r="K23">
-        <v>1.005873727966543</v>
+        <v>1.046239249269266</v>
       </c>
       <c r="L23">
-        <v>0.9890163919366265</v>
+        <v>1.040702412686788</v>
       </c>
       <c r="M23">
-        <v>0.9434115192535978</v>
+        <v>1.038370948529392</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9796982548825561</v>
+        <v>1.041006679478637</v>
       </c>
       <c r="D24">
-        <v>1.002435361999531</v>
+        <v>1.044402757248873</v>
       </c>
       <c r="E24">
-        <v>0.9863074206397956</v>
+        <v>1.039027760946687</v>
       </c>
       <c r="F24">
-        <v>0.947139597792702</v>
+        <v>1.037891196014702</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035067118416364</v>
+        <v>1.042866996491891</v>
       </c>
       <c r="J24">
-        <v>1.008000839888134</v>
+        <v>1.047162748625099</v>
       </c>
       <c r="K24">
-        <v>1.01641984450598</v>
+        <v>1.047743755444759</v>
       </c>
       <c r="L24">
-        <v>1.000579337266654</v>
+        <v>1.042387290406636</v>
       </c>
       <c r="M24">
-        <v>0.9621632655301414</v>
+        <v>1.041254671048468</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.995725246454329</v>
+        <v>1.043573324109701</v>
       </c>
       <c r="D25">
-        <v>1.015226962758229</v>
+        <v>1.046454360300126</v>
       </c>
       <c r="E25">
-        <v>1.000231968034891</v>
+        <v>1.041288497790537</v>
       </c>
       <c r="F25">
-        <v>0.9688534621351882</v>
+        <v>1.041546450985279</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042419647689176</v>
+        <v>1.043842351847973</v>
       </c>
       <c r="J25">
-        <v>1.020397334517972</v>
+        <v>1.049119731292235</v>
       </c>
       <c r="K25">
-        <v>1.027593410500316</v>
+        <v>1.049473778155196</v>
       </c>
       <c r="L25">
-        <v>1.012826684065353</v>
+        <v>1.044323877600715</v>
       </c>
       <c r="M25">
-        <v>0.9819553303529561</v>
+        <v>1.044581029646666</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_39/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.045608419067008</v>
+        <v>1.007551759359025</v>
       </c>
       <c r="D2">
-        <v>1.048080382523962</v>
+        <v>1.024679556814555</v>
       </c>
       <c r="E2">
-        <v>1.043079053674487</v>
+        <v>1.010510230679907</v>
       </c>
       <c r="F2">
-        <v>1.044447821620053</v>
+        <v>0.9848042792019271</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044609206762441</v>
+        <v>1.04778997806803</v>
       </c>
       <c r="J2">
-        <v>1.050667243542236</v>
+        <v>1.029508921060529</v>
       </c>
       <c r="K2">
-        <v>1.050841225952017</v>
+        <v>1.035805448678819</v>
       </c>
       <c r="L2">
-        <v>1.045853932001869</v>
+        <v>1.021825057771939</v>
       </c>
       <c r="M2">
-        <v>1.047218844371849</v>
+        <v>0.9964794540872609</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.047079355999303</v>
+        <v>1.015671116225085</v>
       </c>
       <c r="D3">
-        <v>1.049255227248778</v>
+        <v>1.031174512659429</v>
       </c>
       <c r="E3">
-        <v>1.044372084595887</v>
+        <v>1.017566493164582</v>
       </c>
       <c r="F3">
-        <v>1.046546796370809</v>
+        <v>0.995729320094438</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045159702223752</v>
+        <v>1.051444533097152</v>
       </c>
       <c r="J3">
-        <v>1.051783338939877</v>
+        <v>1.035743499782387</v>
       </c>
       <c r="K3">
-        <v>1.051827104596299</v>
+        <v>1.041423462402832</v>
       </c>
       <c r="L3">
-        <v>1.046956663991478</v>
+        <v>1.027979434937704</v>
       </c>
       <c r="M3">
-        <v>1.049125703094741</v>
+        <v>1.006417138298358</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.048028127108215</v>
+        <v>1.020732079167525</v>
       </c>
       <c r="D4">
-        <v>1.050012815318832</v>
+        <v>1.035224758514979</v>
       </c>
       <c r="E4">
-        <v>1.045205566982232</v>
+        <v>1.02196418135615</v>
       </c>
       <c r="F4">
-        <v>1.047901574026912</v>
+        <v>1.002531330353554</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045513029140961</v>
+        <v>1.053707339955779</v>
       </c>
       <c r="J4">
-        <v>1.052502111585902</v>
+        <v>1.039619923543794</v>
       </c>
       <c r="K4">
-        <v>1.052461852011942</v>
+        <v>1.044915856439335</v>
       </c>
       <c r="L4">
-        <v>1.047666472505622</v>
+        <v>1.031804552770673</v>
       </c>
       <c r="M4">
-        <v>1.050355808828114</v>
+        <v>1.012599300155586</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.048426278985594</v>
+        <v>1.022816639172132</v>
       </c>
       <c r="D5">
-        <v>1.0503306884309</v>
+        <v>1.036893355305642</v>
       </c>
       <c r="E5">
-        <v>1.045555208946008</v>
+        <v>1.023775321252272</v>
       </c>
       <c r="F5">
-        <v>1.048470330578876</v>
+        <v>1.005331671091242</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045660883694322</v>
+        <v>1.054635701509053</v>
       </c>
       <c r="J5">
-        <v>1.052803475951623</v>
+        <v>1.04121423870109</v>
       </c>
       <c r="K5">
-        <v>1.052727946741115</v>
+        <v>1.046352038847485</v>
       </c>
       <c r="L5">
-        <v>1.047963992580434</v>
+        <v>1.033377398268329</v>
       </c>
       <c r="M5">
-        <v>1.050872065333887</v>
+        <v>1.01514317412057</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.048493089071075</v>
+        <v>1.02316420408542</v>
       </c>
       <c r="D6">
-        <v>1.050384024812593</v>
+        <v>1.037171582942694</v>
       </c>
       <c r="E6">
-        <v>1.045613871467583</v>
+        <v>1.024077282820365</v>
       </c>
       <c r="F6">
-        <v>1.048565781495503</v>
+        <v>1.005798515752247</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045685669168332</v>
+        <v>1.054790273436132</v>
       </c>
       <c r="J6">
-        <v>1.052854029284223</v>
+        <v>1.041479925253324</v>
       </c>
       <c r="K6">
-        <v>1.052772581306626</v>
+        <v>1.046591361460445</v>
       </c>
       <c r="L6">
-        <v>1.04801389600083</v>
+        <v>1.033639484694364</v>
       </c>
       <c r="M6">
-        <v>1.050958696051607</v>
+        <v>1.015567186528829</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.048033450013649</v>
+        <v>1.020760098553729</v>
       </c>
       <c r="D7">
-        <v>1.050017065167761</v>
+        <v>1.035247185542052</v>
       </c>
       <c r="E7">
-        <v>1.045210241864725</v>
+        <v>1.02198852657592</v>
       </c>
       <c r="F7">
-        <v>1.047909176864928</v>
+        <v>1.002568975479992</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045515007461984</v>
+        <v>1.053719832997762</v>
       </c>
       <c r="J7">
-        <v>1.052506141592488</v>
+        <v>1.039641362670866</v>
       </c>
       <c r="K7">
-        <v>1.052465410531197</v>
+        <v>1.044935169893002</v>
       </c>
       <c r="L7">
-        <v>1.047670451442131</v>
+        <v>1.031825704679361</v>
       </c>
       <c r="M7">
-        <v>1.05036271050581</v>
+        <v>1.01263350272317</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.046106162565492</v>
+        <v>1.010337624663073</v>
       </c>
       <c r="D8">
-        <v>1.048477973780897</v>
+        <v>1.026907624903113</v>
       </c>
       <c r="E8">
-        <v>1.043516707668984</v>
+        <v>1.012931418366414</v>
       </c>
       <c r="F8">
-        <v>1.045157897029927</v>
+        <v>0.9885548171276471</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044795849028816</v>
+        <v>1.049047102524405</v>
       </c>
       <c r="J8">
-        <v>1.051045146544226</v>
+        <v>1.031650145910174</v>
       </c>
       <c r="K8">
-        <v>1.051175072365079</v>
+        <v>1.037735044891848</v>
       </c>
       <c r="L8">
-        <v>1.0462273845262</v>
+        <v>1.023939028711822</v>
       </c>
       <c r="M8">
-        <v>1.047864066734267</v>
+        <v>0.9998920855241603</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.04268632388365</v>
+        <v>0.9903357867568828</v>
       </c>
       <c r="D9">
-        <v>1.045745457720053</v>
+        <v>1.010922931435622</v>
       </c>
       <c r="E9">
-        <v>1.040507522666601</v>
+        <v>0.9955486834766654</v>
       </c>
       <c r="F9">
-        <v>1.040282770532945</v>
+        <v>0.9615658292896432</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043506290413033</v>
+        <v>1.039955996458093</v>
       </c>
       <c r="J9">
-        <v>1.048444071644782</v>
+        <v>1.016234490443971</v>
       </c>
       <c r="K9">
-        <v>1.048876568890983</v>
+        <v>1.023841243083116</v>
       </c>
       <c r="L9">
-        <v>1.043655466099146</v>
+        <v>1.008714395402634</v>
       </c>
       <c r="M9">
-        <v>1.043431440366485</v>
+        <v>0.9753148533753836</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.040389706708623</v>
+        <v>0.9756376487877704</v>
       </c>
       <c r="D10">
-        <v>1.043909456219709</v>
+        <v>0.9991983217734983</v>
       </c>
       <c r="E10">
-        <v>1.038483925979756</v>
+        <v>0.982780963661571</v>
       </c>
       <c r="F10">
-        <v>1.037013136474425</v>
+        <v>0.9416160044322006</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042631234397535</v>
+        <v>1.033192580249128</v>
       </c>
       <c r="J10">
-        <v>1.046691487209429</v>
+        <v>1.00485234654046</v>
       </c>
       <c r="K10">
-        <v>1.047327031238536</v>
+        <v>1.013582065869906</v>
       </c>
       <c r="L10">
-        <v>1.041920673191321</v>
+        <v>0.9974682320629256</v>
       </c>
       <c r="M10">
-        <v>1.040455119132723</v>
+        <v>0.9571259718381029</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.039391103837639</v>
+        <v>0.9688755205696913</v>
       </c>
       <c r="D11">
-        <v>1.043110919184226</v>
+        <v>0.9938114678287138</v>
       </c>
       <c r="E11">
-        <v>1.037603386859923</v>
+        <v>0.9769101500117948</v>
       </c>
       <c r="F11">
-        <v>1.035592402469881</v>
+        <v>0.9323943625096541</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042248605766153</v>
+        <v>1.030061680511133</v>
       </c>
       <c r="J11">
-        <v>1.04592805898617</v>
+        <v>0.9996029905548445</v>
       </c>
       <c r="K11">
-        <v>1.046651860020344</v>
+        <v>1.008851042140859</v>
       </c>
       <c r="L11">
-        <v>1.041164556553121</v>
+        <v>0.9922810513100958</v>
       </c>
       <c r="M11">
-        <v>1.039161017715103</v>
+        <v>0.948714707563487</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.039019539173341</v>
+        <v>0.9662961722352008</v>
       </c>
       <c r="D12">
-        <v>1.042813764316127</v>
+        <v>0.9917580041340304</v>
       </c>
       <c r="E12">
-        <v>1.037275654665207</v>
+        <v>0.9746714497323268</v>
       </c>
       <c r="F12">
-        <v>1.035063906518435</v>
+        <v>0.9288686558832521</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042105914145073</v>
+        <v>1.028864574788565</v>
       </c>
       <c r="J12">
-        <v>1.045643792029412</v>
+        <v>0.9975987510334235</v>
       </c>
       <c r="K12">
-        <v>1.046400427866246</v>
+        <v>1.007044829802838</v>
       </c>
       <c r="L12">
-        <v>1.040882946347631</v>
+        <v>0.990300542526855</v>
       </c>
       <c r="M12">
-        <v>1.038679504740738</v>
+        <v>0.9454984654974243</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.039099270222074</v>
+        <v>0.9668526527010732</v>
       </c>
       <c r="D13">
-        <v>1.042877529784636</v>
+        <v>0.9922009655751302</v>
       </c>
       <c r="E13">
-        <v>1.037345984452274</v>
+        <v>0.9751544039667523</v>
       </c>
       <c r="F13">
-        <v>1.035177306065784</v>
+        <v>0.9296297086687839</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04213654772035</v>
+        <v>1.029122971844759</v>
       </c>
       <c r="J13">
-        <v>1.045704799941843</v>
+        <v>0.9980312416358658</v>
       </c>
       <c r="K13">
-        <v>1.046454390211755</v>
+        <v>1.007434581866605</v>
       </c>
       <c r="L13">
-        <v>1.040943387054764</v>
+        <v>0.9907279113539376</v>
       </c>
       <c r="M13">
-        <v>1.038782828688911</v>
+        <v>0.9461927311029261</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.039360403312709</v>
+        <v>0.9686637405427588</v>
       </c>
       <c r="D14">
-        <v>1.043086367406514</v>
+        <v>0.9936428385061609</v>
       </c>
       <c r="E14">
-        <v>1.037576309972281</v>
+        <v>0.9767263246283638</v>
       </c>
       <c r="F14">
-        <v>1.03554873273601</v>
+        <v>0.9321050575948618</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042236822424938</v>
+        <v>1.029963448404012</v>
       </c>
       <c r="J14">
-        <v>1.045904575656244</v>
+        <v>0.9994384693428707</v>
       </c>
       <c r="K14">
-        <v>1.046631089750366</v>
+        <v>1.008702773413837</v>
       </c>
       <c r="L14">
-        <v>1.04114129403758</v>
+        <v>0.9921184777654308</v>
       </c>
       <c r="M14">
-        <v>1.039121232697872</v>
+        <v>0.948450802299288</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.039521210883129</v>
+        <v>0.9697703942724522</v>
       </c>
       <c r="D15">
-        <v>1.043214966907615</v>
+        <v>0.9945240627638366</v>
       </c>
       <c r="E15">
-        <v>1.037718133163988</v>
+        <v>0.9776869298401294</v>
       </c>
       <c r="F15">
-        <v>1.03577747785096</v>
+        <v>0.9336164734806268</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042298529730845</v>
+        <v>1.030476643608437</v>
       </c>
       <c r="J15">
-        <v>1.0460275715007</v>
+        <v>1.000298094830264</v>
       </c>
       <c r="K15">
-        <v>1.04673987457171</v>
+        <v>1.009477484872929</v>
       </c>
       <c r="L15">
-        <v>1.041263130659057</v>
+        <v>0.9929679268059816</v>
       </c>
       <c r="M15">
-        <v>1.039329624370229</v>
+        <v>0.9498295090656207</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.040455891908478</v>
+        <v>0.9760774138827072</v>
       </c>
       <c r="D16">
-        <v>1.043962377020215</v>
+        <v>0.9995488138159179</v>
       </c>
       <c r="E16">
-        <v>1.038542272542003</v>
+        <v>0.9831628437976395</v>
       </c>
       <c r="F16">
-        <v>1.037107319114064</v>
+        <v>0.942214696634185</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042656549162241</v>
+        <v>1.033395801059163</v>
       </c>
       <c r="J16">
-        <v>1.046742056550455</v>
+        <v>1.005193467721004</v>
       </c>
       <c r="K16">
-        <v>1.047371750483498</v>
+        <v>1.013889517635292</v>
       </c>
       <c r="L16">
-        <v>1.041970749007942</v>
+        <v>0.9978053075432591</v>
       </c>
       <c r="M16">
-        <v>1.040540889892405</v>
+        <v>0.9576719920530585</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.041041070189849</v>
+        <v>0.979922075251877</v>
       </c>
       <c r="D17">
-        <v>1.044430252893771</v>
+        <v>1.00261383536856</v>
       </c>
       <c r="E17">
-        <v>1.039058070460103</v>
+        <v>0.9865018198007343</v>
       </c>
       <c r="F17">
-        <v>1.037940146444069</v>
+        <v>0.947443772078927</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042880123548029</v>
+        <v>1.03517031550782</v>
       </c>
       <c r="J17">
-        <v>1.047189007850369</v>
+        <v>1.008174300065448</v>
       </c>
       <c r="K17">
-        <v>1.047766974499816</v>
+        <v>1.016576189274802</v>
       </c>
       <c r="L17">
-        <v>1.042413287871234</v>
+        <v>1.00075073403082</v>
       </c>
       <c r="M17">
-        <v>1.041299239228587</v>
+        <v>0.9624406363323467</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.041381995165399</v>
+        <v>0.9821268262452821</v>
       </c>
       <c r="D18">
-        <v>1.044702816552199</v>
+        <v>1.00437215554124</v>
       </c>
       <c r="E18">
-        <v>1.039358511879345</v>
+        <v>0.9884168653328181</v>
       </c>
       <c r="F18">
-        <v>1.038425443706658</v>
+        <v>0.9504385149536324</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043010171900553</v>
+        <v>1.036186129249114</v>
       </c>
       <c r="J18">
-        <v>1.047449269056848</v>
+        <v>1.009882490696038</v>
       </c>
       <c r="K18">
-        <v>1.047997096401108</v>
+        <v>1.018115844251961</v>
       </c>
       <c r="L18">
-        <v>1.042670937541212</v>
+        <v>1.002438579743045</v>
       </c>
       <c r="M18">
-        <v>1.041741058524147</v>
+        <v>0.9651713387195292</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.041498174448038</v>
+        <v>0.9828723963665005</v>
       </c>
       <c r="D19">
-        <v>1.044795696316228</v>
+        <v>1.004966864499847</v>
       </c>
       <c r="E19">
-        <v>1.03946088469039</v>
+        <v>0.9890645103284761</v>
       </c>
       <c r="F19">
-        <v>1.038590837458625</v>
+        <v>0.9514506129890647</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043054454375422</v>
+        <v>1.03652933640029</v>
       </c>
       <c r="J19">
-        <v>1.04753793749855</v>
+        <v>1.010459939250745</v>
       </c>
       <c r="K19">
-        <v>1.048075493554177</v>
+        <v>1.018636324278188</v>
       </c>
       <c r="L19">
-        <v>1.04275870910367</v>
+        <v>1.003009139502151</v>
       </c>
       <c r="M19">
-        <v>1.041891621205674</v>
+        <v>0.9660941387393711</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.040978327542355</v>
+        <v>0.9795135385941321</v>
       </c>
       <c r="D20">
-        <v>1.044380089534074</v>
+        <v>1.00228807377089</v>
       </c>
       <c r="E20">
-        <v>1.03900277322479</v>
+        <v>0.9861469869122313</v>
       </c>
       <c r="F20">
-        <v>1.037850841466935</v>
+        <v>0.9468885443726304</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042856173294768</v>
+        <v>1.03498194087937</v>
       </c>
       <c r="J20">
-        <v>1.047141099592598</v>
+        <v>1.007857678501609</v>
       </c>
       <c r="K20">
-        <v>1.047724612732405</v>
+        <v>1.016290809124288</v>
       </c>
       <c r="L20">
-        <v>1.042365856940994</v>
+        <v>1.000437878547248</v>
       </c>
       <c r="M20">
-        <v>1.041217928765522</v>
+        <v>0.9619343326499837</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.039283523891498</v>
+        <v>0.9681323568916174</v>
       </c>
       <c r="D21">
-        <v>1.043024885004104</v>
+        <v>0.993219747207297</v>
       </c>
       <c r="E21">
-        <v>1.037508503196552</v>
+        <v>0.976265094165412</v>
       </c>
       <c r="F21">
-        <v>1.035439378369131</v>
+        <v>0.9313790159372337</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042207309712374</v>
+        <v>1.029716925604809</v>
       </c>
       <c r="J21">
-        <v>1.045845765994136</v>
+        <v>0.999025633334708</v>
       </c>
       <c r="K21">
-        <v>1.046579073991724</v>
+        <v>1.008330722272643</v>
       </c>
       <c r="L21">
-        <v>1.041083036303017</v>
+        <v>0.9917105292177302</v>
       </c>
       <c r="M21">
-        <v>1.039021604154995</v>
+        <v>0.9477884985671009</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.038214228281512</v>
+        <v>0.960580384344026</v>
       </c>
       <c r="D22">
-        <v>1.042169668734791</v>
+        <v>0.9872102337143901</v>
       </c>
       <c r="E22">
-        <v>1.036565166579317</v>
+        <v>0.9697119966851795</v>
       </c>
       <c r="F22">
-        <v>1.033918715264841</v>
+        <v>0.921038342836053</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04179606345203</v>
+        <v>1.026206574001731</v>
       </c>
       <c r="J22">
-        <v>1.045027306806335</v>
+        <v>0.9931538267245361</v>
       </c>
       <c r="K22">
-        <v>1.04585509975833</v>
+        <v>1.003039388707837</v>
       </c>
       <c r="L22">
-        <v>1.040272102514071</v>
+        <v>0.9859083284308187</v>
       </c>
       <c r="M22">
-        <v>1.037635895793615</v>
+        <v>0.9383550018302131</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.038781438468125</v>
+        <v>0.9646244255108298</v>
       </c>
       <c r="D23">
-        <v>1.042623337042273</v>
+        <v>0.9904274931722568</v>
       </c>
       <c r="E23">
-        <v>1.037065614723797</v>
+        <v>0.9732206997945578</v>
       </c>
       <c r="F23">
-        <v>1.034725281276494</v>
+        <v>0.9265809905011759</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042014386099495</v>
+        <v>1.028087897980257</v>
       </c>
       <c r="J23">
-        <v>1.045461573864114</v>
+        <v>0.9962992051992109</v>
       </c>
       <c r="K23">
-        <v>1.046239249269266</v>
+        <v>1.005873727966541</v>
       </c>
       <c r="L23">
-        <v>1.040702412686788</v>
+        <v>0.9890163919366248</v>
       </c>
       <c r="M23">
-        <v>1.038370948529392</v>
+        <v>0.9434115192535966</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.041006679478637</v>
+        <v>0.9796982548825554</v>
       </c>
       <c r="D24">
-        <v>1.044402757248873</v>
+        <v>1.002435361999531</v>
       </c>
       <c r="E24">
-        <v>1.039027760946687</v>
+        <v>0.9863074206397952</v>
       </c>
       <c r="F24">
-        <v>1.037891196014702</v>
+        <v>0.9471395977927013</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042866996491891</v>
+        <v>1.035067118416364</v>
       </c>
       <c r="J24">
-        <v>1.047162748625099</v>
+        <v>1.008000839888134</v>
       </c>
       <c r="K24">
-        <v>1.047743755444759</v>
+        <v>1.01641984450598</v>
       </c>
       <c r="L24">
-        <v>1.042387290406636</v>
+        <v>1.000579337266654</v>
       </c>
       <c r="M24">
-        <v>1.041254671048468</v>
+        <v>0.962163265530141</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.043573324109701</v>
+        <v>0.9957252464543295</v>
       </c>
       <c r="D25">
-        <v>1.046454360300126</v>
+        <v>1.015226962758229</v>
       </c>
       <c r="E25">
-        <v>1.041288497790537</v>
+        <v>1.000231968034891</v>
       </c>
       <c r="F25">
-        <v>1.041546450985279</v>
+        <v>0.9688534621351886</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043842351847973</v>
+        <v>1.042419647689176</v>
       </c>
       <c r="J25">
-        <v>1.049119731292235</v>
+        <v>1.020397334517973</v>
       </c>
       <c r="K25">
-        <v>1.049473778155196</v>
+        <v>1.027593410500316</v>
       </c>
       <c r="L25">
-        <v>1.044323877600715</v>
+        <v>1.012826684065353</v>
       </c>
       <c r="M25">
-        <v>1.044581029646666</v>
+        <v>0.9819553303529565</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_39/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.007551759359025</v>
+        <v>1.024778955385886</v>
       </c>
       <c r="D2">
-        <v>1.024679556814555</v>
+        <v>1.042420728459068</v>
       </c>
       <c r="E2">
-        <v>1.010510230679907</v>
+        <v>1.037154410561889</v>
       </c>
       <c r="F2">
-        <v>0.9848042792019271</v>
+        <v>1.04631174230213</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04778997806803</v>
+        <v>1.058812942043671</v>
       </c>
       <c r="J2">
-        <v>1.029508921060529</v>
+        <v>1.046242973889724</v>
       </c>
       <c r="K2">
-        <v>1.035805448678819</v>
+        <v>1.053319093272051</v>
       </c>
       <c r="L2">
-        <v>1.021825057771939</v>
+        <v>1.048119300285597</v>
       </c>
       <c r="M2">
-        <v>0.9964794540872609</v>
+        <v>1.05716149121381</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.053811756085844</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.04877142129796</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015671116225085</v>
+        <v>1.028246833222458</v>
       </c>
       <c r="D3">
-        <v>1.031174512659429</v>
+        <v>1.044780064114875</v>
       </c>
       <c r="E3">
-        <v>1.017566493164582</v>
+        <v>1.039834007175307</v>
       </c>
       <c r="F3">
-        <v>0.995729320094438</v>
+        <v>1.048882217735694</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051444533097152</v>
+        <v>1.05975557743852</v>
       </c>
       <c r="J3">
-        <v>1.035743499782387</v>
+        <v>1.047995998809109</v>
       </c>
       <c r="K3">
-        <v>1.041423462402832</v>
+        <v>1.054870326557069</v>
       </c>
       <c r="L3">
-        <v>1.027979434937704</v>
+        <v>1.049981363705958</v>
       </c>
       <c r="M3">
-        <v>1.006417138298358</v>
+        <v>1.058925631374855</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.055207928282192</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.049865619344105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020732079167525</v>
+        <v>1.030454582255682</v>
       </c>
       <c r="D4">
-        <v>1.035224758514979</v>
+        <v>1.046285709626165</v>
       </c>
       <c r="E4">
-        <v>1.02196418135615</v>
+        <v>1.041545585169857</v>
       </c>
       <c r="F4">
-        <v>1.002531330353554</v>
+        <v>1.050524969556286</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053707339955779</v>
+        <v>1.060346827994181</v>
       </c>
       <c r="J4">
-        <v>1.039619923543794</v>
+        <v>1.049110084995226</v>
       </c>
       <c r="K4">
-        <v>1.044915856439335</v>
+        <v>1.055855845569853</v>
       </c>
       <c r="L4">
-        <v>1.031804552770673</v>
+        <v>1.051167172680403</v>
       </c>
       <c r="M4">
-        <v>1.012599300155586</v>
+        <v>1.060049572337295</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.056097434000647</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.050563329682617</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022816639172132</v>
+        <v>1.031377401291905</v>
       </c>
       <c r="D5">
-        <v>1.036893355305642</v>
+        <v>1.046917715153354</v>
       </c>
       <c r="E5">
-        <v>1.023775321252272</v>
+        <v>1.042262850730202</v>
       </c>
       <c r="F5">
-        <v>1.005331671091242</v>
+        <v>1.051213667907907</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054635701509053</v>
+        <v>1.060593249548779</v>
       </c>
       <c r="J5">
-        <v>1.04121423870109</v>
+        <v>1.049576747866755</v>
       </c>
       <c r="K5">
-        <v>1.046352038847485</v>
+        <v>1.05626978470387</v>
       </c>
       <c r="L5">
-        <v>1.033377398268329</v>
+        <v>1.051664114894125</v>
       </c>
       <c r="M5">
-        <v>1.01514317412057</v>
+        <v>1.060520808117972</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.056470377587965</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.050863078403393</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.02316420408542</v>
+        <v>1.031535651239014</v>
       </c>
       <c r="D6">
-        <v>1.037171582942694</v>
+        <v>1.047028349559089</v>
       </c>
       <c r="E6">
-        <v>1.024077282820365</v>
+        <v>1.042386542877023</v>
       </c>
       <c r="F6">
-        <v>1.005798515752247</v>
+        <v>1.051332527563698</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054790273436132</v>
+        <v>1.060637134952163</v>
       </c>
       <c r="J6">
-        <v>1.041479925253324</v>
+        <v>1.049658533937577</v>
       </c>
       <c r="K6">
-        <v>1.046591361460445</v>
+        <v>1.056343791310596</v>
       </c>
       <c r="L6">
-        <v>1.033639484694364</v>
+        <v>1.051750818807719</v>
       </c>
       <c r="M6">
-        <v>1.015567186528829</v>
+        <v>1.06060315751789</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.05653555021081</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.050924024136677</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.020760098553729</v>
+        <v>1.030477142197853</v>
       </c>
       <c r="D7">
-        <v>1.035247185542052</v>
+        <v>1.046307052439431</v>
       </c>
       <c r="E7">
-        <v>1.02198852657592</v>
+        <v>1.041564769431176</v>
       </c>
       <c r="F7">
-        <v>1.002568975479992</v>
+        <v>1.050543592334453</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053719832997762</v>
+        <v>1.060357559776247</v>
       </c>
       <c r="J7">
-        <v>1.039641362670866</v>
+        <v>1.049126294907496</v>
       </c>
       <c r="K7">
-        <v>1.044935169893002</v>
+        <v>1.055874133124991</v>
       </c>
       <c r="L7">
-        <v>1.031825704679361</v>
+        <v>1.051183305562929</v>
       </c>
       <c r="M7">
-        <v>1.01263350272317</v>
+        <v>1.060065186296848</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.056109791142662</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.05059608341321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.010337624663073</v>
+        <v>1.025971303865771</v>
       </c>
       <c r="D8">
-        <v>1.026907624903113</v>
+        <v>1.043238422915779</v>
       </c>
       <c r="E8">
-        <v>1.012931418366414</v>
+        <v>1.038076662056071</v>
       </c>
       <c r="F8">
-        <v>0.9885548171276471</v>
+        <v>1.047196445711097</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049047102524405</v>
+        <v>1.059144604591546</v>
       </c>
       <c r="J8">
-        <v>1.031650145910174</v>
+        <v>1.046852050733443</v>
       </c>
       <c r="K8">
-        <v>1.037735044891848</v>
+        <v>1.053862901781381</v>
       </c>
       <c r="L8">
-        <v>1.023939028711822</v>
+        <v>1.048764426567575</v>
       </c>
       <c r="M8">
-        <v>0.9998920855241603</v>
+        <v>1.057772922100334</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.054295653758079</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.049178518793084</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9903357867568828</v>
+        <v>1.017726997052711</v>
       </c>
       <c r="D9">
-        <v>1.010922931435622</v>
+        <v>1.037644529169103</v>
       </c>
       <c r="E9">
-        <v>0.9955486834766654</v>
+        <v>1.031737884393668</v>
       </c>
       <c r="F9">
-        <v>0.9615658292896432</v>
+        <v>1.041120619163404</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039955996458093</v>
+        <v>1.056849322190513</v>
       </c>
       <c r="J9">
-        <v>1.016234490443971</v>
+        <v>1.042668932985134</v>
       </c>
       <c r="K9">
-        <v>1.023841243083116</v>
+        <v>1.050155010104064</v>
       </c>
       <c r="L9">
-        <v>1.008714395402634</v>
+        <v>1.044336199323025</v>
       </c>
       <c r="M9">
-        <v>0.9753148533753836</v>
+        <v>1.053580000618173</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.050977292186308</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.046553730140435</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9756376487877704</v>
+        <v>1.012078989155853</v>
       </c>
       <c r="D10">
-        <v>0.9991983217734983</v>
+        <v>1.033852770145771</v>
       </c>
       <c r="E10">
-        <v>0.982780963661571</v>
+        <v>1.027452358092615</v>
       </c>
       <c r="F10">
-        <v>0.9416160044322006</v>
+        <v>1.037048959287905</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033192580249128</v>
+        <v>1.05525228669465</v>
       </c>
       <c r="J10">
-        <v>1.00485234654046</v>
+        <v>1.039821429451619</v>
       </c>
       <c r="K10">
-        <v>1.013582065869906</v>
+        <v>1.047636568732617</v>
       </c>
       <c r="L10">
-        <v>0.9974682320629256</v>
+        <v>1.041343032283367</v>
       </c>
       <c r="M10">
-        <v>0.9571259718381029</v>
+        <v>1.050780022352</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.048812126824735</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.044789676139592</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9688755205696913</v>
+        <v>1.010030933905444</v>
       </c>
       <c r="D11">
-        <v>0.9938114678287138</v>
+        <v>1.032621077497631</v>
       </c>
       <c r="E11">
-        <v>0.9769101500117948</v>
+        <v>1.026097698108284</v>
       </c>
       <c r="F11">
-        <v>0.9323943625096541</v>
+        <v>1.036012860295328</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030061680511133</v>
+        <v>1.054812033914432</v>
       </c>
       <c r="J11">
-        <v>0.9996029905548445</v>
+        <v>1.038992287371644</v>
       </c>
       <c r="K11">
-        <v>1.008851042140859</v>
+        <v>1.046952957808732</v>
       </c>
       <c r="L11">
-        <v>0.9922810513100958</v>
+        <v>1.040543679521647</v>
       </c>
       <c r="M11">
-        <v>0.948714707563487</v>
+        <v>1.050286148657752</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.048852333632976</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.04433878034975</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9662961722352008</v>
+        <v>1.00942189139094</v>
       </c>
       <c r="D12">
-        <v>0.9917580041340304</v>
+        <v>1.032311080276126</v>
       </c>
       <c r="E12">
-        <v>0.9746714497323268</v>
+        <v>1.025779650125569</v>
       </c>
       <c r="F12">
-        <v>0.9288686558832521</v>
+        <v>1.035895143616071</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028864574788565</v>
+        <v>1.054740941461324</v>
       </c>
       <c r="J12">
-        <v>0.9975987510334235</v>
+        <v>1.038832784135616</v>
       </c>
       <c r="K12">
-        <v>1.007044829802838</v>
+        <v>1.046844371069755</v>
       </c>
       <c r="L12">
-        <v>0.990300542526855</v>
+        <v>1.040429075702037</v>
       </c>
       <c r="M12">
-        <v>0.9454984654974243</v>
+        <v>1.050365512525003</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.049237995551938</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.044262007790273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9668526527010732</v>
+        <v>1.009894585705513</v>
       </c>
       <c r="D13">
-        <v>0.9922009655751302</v>
+        <v>1.032707522673515</v>
       </c>
       <c r="E13">
-        <v>0.9751544039667523</v>
+        <v>1.026252572533557</v>
       </c>
       <c r="F13">
-        <v>0.9296297086687839</v>
+        <v>1.036497450311242</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029122971844759</v>
+        <v>1.054964292795537</v>
       </c>
       <c r="J13">
-        <v>0.9980312416358658</v>
+        <v>1.039194900456462</v>
       </c>
       <c r="K13">
-        <v>1.007434581866605</v>
+        <v>1.047191801917734</v>
       </c>
       <c r="L13">
-        <v>0.9907279113539376</v>
+        <v>1.040851118853536</v>
       </c>
       <c r="M13">
-        <v>0.9461927311029261</v>
+        <v>1.050915497782393</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.049946892703424</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.044505185577207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9686637405427588</v>
+        <v>1.010716553285901</v>
       </c>
       <c r="D14">
-        <v>0.9936428385061609</v>
+        <v>1.033306621910663</v>
       </c>
       <c r="E14">
-        <v>0.9767263246283638</v>
+        <v>1.026942416827472</v>
       </c>
       <c r="F14">
-        <v>0.9321050575948618</v>
+        <v>1.037246065812557</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029963448404012</v>
+        <v>1.055254489721572</v>
       </c>
       <c r="J14">
-        <v>0.9994384693428707</v>
+        <v>1.039685235603777</v>
       </c>
       <c r="K14">
-        <v>1.008702773413837</v>
+        <v>1.047642802012308</v>
       </c>
       <c r="L14">
-        <v>0.9921184777654308</v>
+        <v>1.041389844322416</v>
       </c>
       <c r="M14">
-        <v>0.948450802299288</v>
+        <v>1.051514267984596</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.050592088524096</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.044825456637394</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9697703942724522</v>
+        <v>1.011157732029755</v>
       </c>
       <c r="D15">
-        <v>0.9945240627638366</v>
+        <v>1.033614067536851</v>
       </c>
       <c r="E15">
-        <v>0.9776869298401294</v>
+        <v>1.027290619468761</v>
       </c>
       <c r="F15">
-        <v>0.9336164734806268</v>
+        <v>1.037597668587861</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030476643608437</v>
+        <v>1.055394084733853</v>
       </c>
       <c r="J15">
-        <v>1.000298094830264</v>
+        <v>1.039925264565107</v>
       </c>
       <c r="K15">
-        <v>1.009477484872929</v>
+        <v>1.04786017585647</v>
       </c>
       <c r="L15">
-        <v>0.9929679268059816</v>
+        <v>1.041646420158005</v>
       </c>
       <c r="M15">
-        <v>0.9498295090656207</v>
+        <v>1.051775560216295</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.050835865635729</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.044984939746054</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,81 +1175,105 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9760774138827072</v>
+        <v>1.013460499744049</v>
       </c>
       <c r="D16">
-        <v>0.9995488138159179</v>
+        <v>1.035149982646385</v>
       </c>
       <c r="E16">
-        <v>0.9831628437976395</v>
+        <v>1.02901891764475</v>
       </c>
       <c r="F16">
-        <v>0.942214696634185</v>
+        <v>1.03923051862623</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033395801059163</v>
+        <v>1.05604607011788</v>
       </c>
       <c r="J16">
-        <v>1.005193467721004</v>
+        <v>1.041074948673151</v>
       </c>
       <c r="K16">
-        <v>1.013889517635292</v>
+        <v>1.048877425163053</v>
       </c>
       <c r="L16">
-        <v>0.9978053075432591</v>
+        <v>1.042848075295133</v>
       </c>
       <c r="M16">
-        <v>0.9576719920530585</v>
+        <v>1.052891119272683</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.051679194389921</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.045707280385568</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C17">
-        <v>0.979922075251877</v>
+        <v>1.014797983431274</v>
       </c>
       <c r="D17">
-        <v>1.00261383536856</v>
+        <v>1.03601549795524</v>
       </c>
       <c r="E17">
-        <v>0.9865018198007343</v>
+        <v>1.029984605716613</v>
       </c>
       <c r="F17">
-        <v>0.947443772078927</v>
+        <v>1.040088079859754</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03517031550782</v>
+        <v>1.056391596833052</v>
       </c>
       <c r="J17">
-        <v>1.008174300065448</v>
+        <v>1.041699138498095</v>
       </c>
       <c r="K17">
-        <v>1.016576189274802</v>
+        <v>1.049420198245135</v>
       </c>
       <c r="L17">
-        <v>1.00075073403082</v>
+        <v>1.043486557186808</v>
       </c>
       <c r="M17">
-        <v>0.9624406363323467</v>
+        <v>1.053427924789694</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.051975550086164</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.046093586822463</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9821268262452821</v>
+        <v>1.015416455249761</v>
       </c>
       <c r="D18">
-        <v>1.00437215554124</v>
+        <v>1.036363141054389</v>
       </c>
       <c r="E18">
-        <v>0.9884168653328181</v>
+        <v>1.030359934955809</v>
       </c>
       <c r="F18">
-        <v>0.9504385149536324</v>
+        <v>1.040320036912373</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036186129249114</v>
+        <v>1.056493903003438</v>
       </c>
       <c r="J18">
-        <v>1.009882490696038</v>
+        <v>1.041909437739328</v>
       </c>
       <c r="K18">
-        <v>1.018115844251961</v>
+        <v>1.049582391708863</v>
       </c>
       <c r="L18">
-        <v>1.002438579743045</v>
+        <v>1.043674415692072</v>
       </c>
       <c r="M18">
-        <v>0.9651713387195292</v>
+        <v>1.053477286810314</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.051779153832864</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.04619677544461</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9828723963665005</v>
+        <v>1.015394434450333</v>
       </c>
       <c r="D19">
-        <v>1.004966864499847</v>
+        <v>1.036256670116405</v>
       </c>
       <c r="E19">
-        <v>0.9890645103284761</v>
+        <v>1.030208850217943</v>
       </c>
       <c r="F19">
-        <v>0.9514506129890647</v>
+        <v>1.039992882026485</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03652933640029</v>
+        <v>1.056386386515533</v>
       </c>
       <c r="J19">
-        <v>1.010459939250745</v>
+        <v>1.041756908491881</v>
       </c>
       <c r="K19">
-        <v>1.018636324278188</v>
+        <v>1.049416247205449</v>
       </c>
       <c r="L19">
-        <v>1.003009139502151</v>
+        <v>1.043463885412888</v>
       </c>
       <c r="M19">
-        <v>0.9660941387393711</v>
+        <v>1.053094196076925</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.051154282693163</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.046085620904098</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9795135385941321</v>
+        <v>1.013568253663785</v>
       </c>
       <c r="D20">
-        <v>1.00228807377089</v>
+        <v>1.03486610887223</v>
       </c>
       <c r="E20">
-        <v>0.9861469869122313</v>
+        <v>1.028585791757703</v>
       </c>
       <c r="F20">
-        <v>0.9468885443726304</v>
+        <v>1.038127380361199</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03498194087937</v>
+        <v>1.055688483197606</v>
       </c>
       <c r="J20">
-        <v>1.007857678501609</v>
+        <v>1.040585978715897</v>
       </c>
       <c r="K20">
-        <v>1.016290809124288</v>
+        <v>1.048322386409004</v>
       </c>
       <c r="L20">
-        <v>1.000437878547248</v>
+        <v>1.042143952093673</v>
       </c>
       <c r="M20">
-        <v>0.9619343326499837</v>
+        <v>1.051531375090814</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.049396316708255</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.045316109291574</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9681323568916174</v>
+        <v>1.009248078060662</v>
       </c>
       <c r="D21">
-        <v>0.993219747207297</v>
+        <v>1.031944988209103</v>
       </c>
       <c r="E21">
-        <v>0.976265094165412</v>
+        <v>1.025282173639397</v>
       </c>
       <c r="F21">
-        <v>0.9313790159372337</v>
+        <v>1.034941386680377</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029716925604809</v>
+        <v>1.054421611937563</v>
       </c>
       <c r="J21">
-        <v>0.999025633334708</v>
+        <v>1.038364165798515</v>
       </c>
       <c r="K21">
-        <v>1.008330722272643</v>
+        <v>1.046345414929605</v>
       </c>
       <c r="L21">
-        <v>0.9917105292177302</v>
+        <v>1.039799892202288</v>
       </c>
       <c r="M21">
-        <v>0.9477884985671009</v>
+        <v>1.049289701978945</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.047581849166974</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.043921536627507</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.960580384344026</v>
+        <v>1.006499549356004</v>
       </c>
       <c r="D22">
-        <v>0.9872102337143901</v>
+        <v>1.030094591520554</v>
       </c>
       <c r="E22">
-        <v>0.9697119966851795</v>
+        <v>1.023197904993221</v>
       </c>
       <c r="F22">
-        <v>0.921038342836053</v>
+        <v>1.03294813155811</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026206574001731</v>
+        <v>1.053611630014647</v>
       </c>
       <c r="J22">
-        <v>0.9931538267245361</v>
+        <v>1.036957097750876</v>
       </c>
       <c r="K22">
-        <v>1.003039388707837</v>
+        <v>1.045092548925626</v>
       </c>
       <c r="L22">
-        <v>0.9859083284308187</v>
+        <v>1.038323401326957</v>
       </c>
       <c r="M22">
-        <v>0.9383550018302131</v>
+        <v>1.047893967225148</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.046477228579052</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.043022382790754</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9646244255108298</v>
+        <v>1.007951843149248</v>
       </c>
       <c r="D23">
-        <v>0.9904274931722568</v>
+        <v>1.031066692584167</v>
       </c>
       <c r="E23">
-        <v>0.9732206997945578</v>
+        <v>1.02429672494782</v>
       </c>
       <c r="F23">
-        <v>0.9265809905011759</v>
+        <v>1.033998874257786</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028087897980257</v>
+        <v>1.054036565495289</v>
       </c>
       <c r="J23">
-        <v>0.9962992051992109</v>
+        <v>1.037696432607931</v>
       </c>
       <c r="K23">
-        <v>1.005873727966541</v>
+        <v>1.045747688907835</v>
       </c>
       <c r="L23">
-        <v>0.9890163919366248</v>
+        <v>1.039099716213721</v>
       </c>
       <c r="M23">
-        <v>0.9434115192535966</v>
+        <v>1.048627675849394</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.047057904769371</v>
+      </c>
+      <c r="Q23">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R23">
+        <v>1.043476064180572</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9796982548825554</v>
+        <v>1.013581242048848</v>
       </c>
       <c r="D24">
-        <v>1.002435361999531</v>
+        <v>1.034853714066586</v>
       </c>
       <c r="E24">
-        <v>0.9863074206397952</v>
+        <v>1.028574378745633</v>
       </c>
       <c r="F24">
-        <v>0.9471395977927013</v>
+        <v>1.038091597296466</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035067118416364</v>
+        <v>1.055671930103103</v>
       </c>
       <c r="J24">
-        <v>1.008000839888134</v>
+        <v>1.040566333487571</v>
       </c>
       <c r="K24">
-        <v>1.01641984450598</v>
+        <v>1.048295209662557</v>
       </c>
       <c r="L24">
-        <v>1.000579337266654</v>
+        <v>1.042117614082657</v>
       </c>
       <c r="M24">
-        <v>0.962163265530141</v>
+        <v>1.051481248172416</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.049316292187083</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.045269832220944</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9957252464543295</v>
+        <v>1.019910345006213</v>
       </c>
       <c r="D25">
-        <v>1.015226962758229</v>
+        <v>1.039131263358719</v>
       </c>
       <c r="E25">
-        <v>1.000231968034891</v>
+        <v>1.033413794675365</v>
       </c>
       <c r="F25">
-        <v>0.9688534621351886</v>
+        <v>1.042726299068916</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042419647689176</v>
+        <v>1.05747206023828</v>
       </c>
       <c r="J25">
-        <v>1.020397334517973</v>
+        <v>1.043785735959204</v>
       </c>
       <c r="K25">
-        <v>1.027593410500316</v>
+        <v>1.051151036254049</v>
       </c>
       <c r="L25">
-        <v>1.012826684065353</v>
+        <v>1.045514638926704</v>
       </c>
       <c r="M25">
-        <v>0.9819553303529565</v>
+        <v>1.05469567054413</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.051860257015507</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.047286173203357</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_39/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.024778955385886</v>
+        <v>1.023128157393364</v>
       </c>
       <c r="D2">
-        <v>1.042420728459068</v>
+        <v>1.04006344980856</v>
       </c>
       <c r="E2">
-        <v>1.037154410561889</v>
+        <v>1.035678377642869</v>
       </c>
       <c r="F2">
-        <v>1.04631174230213</v>
+        <v>1.044689243361762</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.058812942043671</v>
+        <v>1.057506434328271</v>
       </c>
       <c r="J2">
-        <v>1.046242973889724</v>
+        <v>1.044638448847934</v>
       </c>
       <c r="K2">
-        <v>1.053319093272051</v>
+        <v>1.050991488186434</v>
       </c>
       <c r="L2">
-        <v>1.048119300285597</v>
+        <v>1.046662064468543</v>
       </c>
       <c r="M2">
-        <v>1.05716149121381</v>
+        <v>1.05555920956984</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.053811756085844</v>
+        <v>1.052543679392787</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.04877142129796</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.047134305044338</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.025507683721013</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.028246833222458</v>
+        <v>1.026493704528678</v>
       </c>
       <c r="D3">
-        <v>1.044780064114875</v>
+        <v>1.042276823261619</v>
       </c>
       <c r="E3">
-        <v>1.039834007175307</v>
+        <v>1.038262398723696</v>
       </c>
       <c r="F3">
-        <v>1.048882217735694</v>
+        <v>1.047158865191366</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.05975557743852</v>
+        <v>1.058366061842652</v>
       </c>
       <c r="J3">
-        <v>1.047995998809109</v>
+        <v>1.046287286808564</v>
       </c>
       <c r="K3">
-        <v>1.054870326557069</v>
+        <v>1.052395897841551</v>
       </c>
       <c r="L3">
-        <v>1.049981363705958</v>
+        <v>1.048428037702922</v>
       </c>
       <c r="M3">
-        <v>1.058925631374855</v>
+        <v>1.05722190528546</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.055207928282192</v>
+        <v>1.053859568909352</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.049865619344105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.048124414993201</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025786466819128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030454582255682</v>
+        <v>1.028636828289342</v>
       </c>
       <c r="D4">
-        <v>1.046285709626165</v>
+        <v>1.043689893213347</v>
       </c>
       <c r="E4">
-        <v>1.041545585169857</v>
+        <v>1.039913572500611</v>
       </c>
       <c r="F4">
-        <v>1.050524969556286</v>
+        <v>1.048737771644391</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.060346827994181</v>
+        <v>1.058904584638326</v>
       </c>
       <c r="J4">
-        <v>1.049110084995226</v>
+        <v>1.04733532287906</v>
       </c>
       <c r="K4">
-        <v>1.055855845569853</v>
+        <v>1.053288134361517</v>
       </c>
       <c r="L4">
-        <v>1.051167172680403</v>
+        <v>1.049553007943852</v>
       </c>
       <c r="M4">
-        <v>1.060049572337295</v>
+        <v>1.058281515418319</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.056097434000647</v>
+        <v>1.054698163647804</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.050563329682617</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.04875625258898</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.02596133834794</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.031377401291905</v>
+        <v>1.029532753815362</v>
       </c>
       <c r="D5">
-        <v>1.046917715153354</v>
+        <v>1.044283341377188</v>
       </c>
       <c r="E5">
-        <v>1.042262850730202</v>
+        <v>1.040605686506028</v>
       </c>
       <c r="F5">
-        <v>1.051213667907907</v>
+        <v>1.049399884164608</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.060593249548779</v>
+        <v>1.059129016032431</v>
       </c>
       <c r="J5">
-        <v>1.049576747866755</v>
+        <v>1.047774446940745</v>
       </c>
       <c r="K5">
-        <v>1.05626978470387</v>
+        <v>1.053663186232011</v>
       </c>
       <c r="L5">
-        <v>1.051664114894125</v>
+        <v>1.050024594354615</v>
       </c>
       <c r="M5">
-        <v>1.060520808117972</v>
+        <v>1.058725939067797</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.056470377587965</v>
+        <v>1.055049888334113</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.050863078403393</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.049029218198479</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.026034816536464</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031535651239014</v>
+        <v>1.02968639914189</v>
       </c>
       <c r="D6">
-        <v>1.047028349559089</v>
+        <v>1.044387438185353</v>
       </c>
       <c r="E6">
-        <v>1.042386542877023</v>
+        <v>1.040725063915722</v>
       </c>
       <c r="F6">
-        <v>1.051332527563698</v>
+        <v>1.049514210678655</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.060637134952163</v>
+        <v>1.059169159437296</v>
       </c>
       <c r="J6">
-        <v>1.049658533937577</v>
+        <v>1.047851519474673</v>
       </c>
       <c r="K6">
-        <v>1.056343791310596</v>
+        <v>1.053730598594269</v>
       </c>
       <c r="L6">
-        <v>1.051750818807719</v>
+        <v>1.050106949000393</v>
       </c>
       <c r="M6">
-        <v>1.06060315751789</v>
+        <v>1.058803716801808</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.05653555021081</v>
+        <v>1.055111442982893</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.050924024136677</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.049086371443719</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.026048618004422</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030477142197853</v>
+        <v>1.028658718647208</v>
       </c>
       <c r="D7">
-        <v>1.046307052439431</v>
+        <v>1.04371047130243</v>
       </c>
       <c r="E7">
-        <v>1.041564769431176</v>
+        <v>1.039932108238386</v>
       </c>
       <c r="F7">
-        <v>1.050543592334453</v>
+        <v>1.048755790912515</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.060357559776247</v>
+        <v>1.058914845621369</v>
       </c>
       <c r="J7">
-        <v>1.049126294907496</v>
+        <v>1.047350860943758</v>
       </c>
       <c r="K7">
-        <v>1.055874133124991</v>
+        <v>1.053305654752758</v>
       </c>
       <c r="L7">
-        <v>1.051183305562929</v>
+        <v>1.049568492664426</v>
       </c>
       <c r="M7">
-        <v>1.060065186296848</v>
+        <v>1.058296525161557</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.056109791142662</v>
+        <v>1.054710042625037</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.05059608341321</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.048790465557268</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.025966461004897</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025971303865771</v>
+        <v>1.024285138211155</v>
       </c>
       <c r="D8">
-        <v>1.043238422915779</v>
+        <v>1.040831063368012</v>
       </c>
       <c r="E8">
-        <v>1.038076662056071</v>
+        <v>1.036567575378381</v>
       </c>
       <c r="F8">
-        <v>1.047196445711097</v>
+        <v>1.045539206723829</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.059144604591546</v>
+        <v>1.057809582645415</v>
       </c>
       <c r="J8">
-        <v>1.046852050733443</v>
+        <v>1.045211591023402</v>
       </c>
       <c r="K8">
-        <v>1.053862901781381</v>
+        <v>1.051484960468254</v>
       </c>
       <c r="L8">
-        <v>1.048764426567575</v>
+        <v>1.047273990250736</v>
       </c>
       <c r="M8">
-        <v>1.057772922100334</v>
+        <v>1.056135726993864</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.054295653758079</v>
+        <v>1.052999946681759</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.049178518793084</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.047508083523476</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.025608191999256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.017726997052711</v>
+        <v>1.016287422955416</v>
       </c>
       <c r="D9">
-        <v>1.037644529169103</v>
+        <v>1.035586114984028</v>
       </c>
       <c r="E9">
-        <v>1.031737884393668</v>
+        <v>1.03045874543223</v>
       </c>
       <c r="F9">
-        <v>1.041120619163404</v>
+        <v>1.039705323769185</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.056849322190513</v>
+        <v>1.055712314302876</v>
       </c>
       <c r="J9">
-        <v>1.042668932985134</v>
+        <v>1.041277855729582</v>
       </c>
       <c r="K9">
-        <v>1.050155010104064</v>
+        <v>1.048127060718761</v>
       </c>
       <c r="L9">
-        <v>1.044336199323025</v>
+        <v>1.043076250467921</v>
       </c>
       <c r="M9">
-        <v>1.053580000618173</v>
+        <v>1.052185458099157</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.050977292186308</v>
+        <v>1.049873620210766</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.046553730140435</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.045130470710627</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.02492715430693</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.012078989155853</v>
+        <v>1.010808366172982</v>
       </c>
       <c r="D10">
-        <v>1.033852770145771</v>
+        <v>1.032032336332764</v>
       </c>
       <c r="E10">
-        <v>1.027452358092615</v>
+        <v>1.026330037201491</v>
       </c>
       <c r="F10">
-        <v>1.037048959287905</v>
+        <v>1.035798961844538</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.05525228669465</v>
+        <v>1.054249662048859</v>
       </c>
       <c r="J10">
-        <v>1.039821429451619</v>
+        <v>1.038599623144902</v>
       </c>
       <c r="K10">
-        <v>1.047636568732617</v>
+        <v>1.045846359209428</v>
       </c>
       <c r="L10">
-        <v>1.041343032283367</v>
+        <v>1.040239629380305</v>
       </c>
       <c r="M10">
-        <v>1.050780022352</v>
+        <v>1.0495505993849</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.048812126824735</v>
+        <v>1.047839190624391</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.044789676139592</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.043536189580812</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.024459282603633</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.010030933905444</v>
+        <v>1.008793677581052</v>
       </c>
       <c r="D11">
-        <v>1.032621077497631</v>
+        <v>1.030860267820278</v>
       </c>
       <c r="E11">
-        <v>1.026097698108284</v>
+        <v>1.025004432046701</v>
       </c>
       <c r="F11">
-        <v>1.036012860295328</v>
+        <v>1.034800566436486</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.054812033914432</v>
+        <v>1.053841224599737</v>
       </c>
       <c r="J11">
-        <v>1.038992287371644</v>
+        <v>1.037805150473527</v>
       </c>
       <c r="K11">
-        <v>1.046952957808732</v>
+        <v>1.045222762401323</v>
       </c>
       <c r="L11">
-        <v>1.040543679521647</v>
+        <v>1.039469720184345</v>
       </c>
       <c r="M11">
-        <v>1.050286148657752</v>
+        <v>1.04909473973697</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.048852333632976</v>
+        <v>1.047909944163997</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.04433878034975</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.043130950079648</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.024375469627451</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.00942189139094</v>
+        <v>1.008181562518387</v>
       </c>
       <c r="D12">
-        <v>1.032311080276126</v>
+        <v>1.030555601809444</v>
       </c>
       <c r="E12">
-        <v>1.025779650125569</v>
+        <v>1.024682088371252</v>
       </c>
       <c r="F12">
-        <v>1.035895143616071</v>
+        <v>1.034683756258837</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.054740941461324</v>
+        <v>1.053771823173977</v>
       </c>
       <c r="J12">
-        <v>1.038832784135616</v>
+        <v>1.037643655225304</v>
       </c>
       <c r="K12">
-        <v>1.046844371069755</v>
+        <v>1.04511991895872</v>
       </c>
       <c r="L12">
-        <v>1.040429075702037</v>
+        <v>1.039351218402673</v>
       </c>
       <c r="M12">
-        <v>1.050365512525003</v>
+        <v>1.049175329118866</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.049237995551938</v>
+        <v>1.048296887542949</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.044262007790273</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.043058239396599</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.024386721604727</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.009894585705513</v>
+        <v>1.008622264780285</v>
       </c>
       <c r="D13">
-        <v>1.032707522673515</v>
+        <v>1.03091517758767</v>
       </c>
       <c r="E13">
-        <v>1.026252572533557</v>
+        <v>1.02512421497099</v>
       </c>
       <c r="F13">
-        <v>1.036497450311242</v>
+        <v>1.035258168170916</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.054964292795537</v>
+        <v>1.053973365754548</v>
       </c>
       <c r="J13">
-        <v>1.039194900456462</v>
+        <v>1.037974841182958</v>
       </c>
       <c r="K13">
-        <v>1.047191801917734</v>
+        <v>1.045430999291774</v>
       </c>
       <c r="L13">
-        <v>1.040851118853536</v>
+        <v>1.03974292765368</v>
       </c>
       <c r="M13">
-        <v>1.050915497782393</v>
+        <v>1.049697803910594</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.049946892703424</v>
+        <v>1.048984269214788</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.044505185577207</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.043275469601133</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.024479314121368</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.010716553285901</v>
+        <v>1.009409098750406</v>
       </c>
       <c r="D14">
-        <v>1.033306621910663</v>
+        <v>1.031469611186291</v>
       </c>
       <c r="E14">
-        <v>1.026942416827472</v>
+        <v>1.025780861745391</v>
       </c>
       <c r="F14">
-        <v>1.037246065812557</v>
+        <v>1.035974484462887</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.055254489721572</v>
+        <v>1.054237822121566</v>
       </c>
       <c r="J14">
-        <v>1.039685235603777</v>
+        <v>1.038430722755144</v>
       </c>
       <c r="K14">
-        <v>1.047642802012308</v>
+        <v>1.045837720068915</v>
       </c>
       <c r="L14">
-        <v>1.041389844322416</v>
+        <v>1.040248786609796</v>
       </c>
       <c r="M14">
-        <v>1.051514267984596</v>
+        <v>1.050264555616921</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.050592088524096</v>
+        <v>1.049604285019696</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.044825456637394</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.043564568578361</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.024581281600378</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.011157732029755</v>
+        <v>1.00983497865904</v>
       </c>
       <c r="D15">
-        <v>1.033614067536851</v>
+        <v>1.031756472659976</v>
       </c>
       <c r="E15">
-        <v>1.027290619468761</v>
+        <v>1.026114782453782</v>
       </c>
       <c r="F15">
-        <v>1.037597668587861</v>
+        <v>1.036311560694213</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.055394084733853</v>
+        <v>1.054365711856849</v>
       </c>
       <c r="J15">
-        <v>1.039925264565107</v>
+        <v>1.038655608632745</v>
       </c>
       <c r="K15">
-        <v>1.04786017585647</v>
+        <v>1.046034624104623</v>
       </c>
       <c r="L15">
-        <v>1.041646420158005</v>
+        <v>1.040491173453802</v>
       </c>
       <c r="M15">
-        <v>1.051775560216295</v>
+        <v>1.050511402057103</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.010174360971594</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.050835865635729</v>
+        <v>1.049836669843804</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.044984939746054</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.043710149875348</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.024626302984192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,105 +1307,123 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.013460499744049</v>
+        <v>1.012072157426492</v>
       </c>
       <c r="D16">
-        <v>1.035149982646385</v>
+        <v>1.033198084014815</v>
       </c>
       <c r="E16">
-        <v>1.02901891764475</v>
+        <v>1.02778272874839</v>
       </c>
       <c r="F16">
-        <v>1.03923051862623</v>
+        <v>1.037879666442529</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.05604607011788</v>
+        <v>1.054964828755835</v>
       </c>
       <c r="J16">
-        <v>1.041074948673151</v>
+        <v>1.039739579824839</v>
       </c>
       <c r="K16">
-        <v>1.048877425163053</v>
+        <v>1.046957740186333</v>
       </c>
       <c r="L16">
-        <v>1.042848075295133</v>
+        <v>1.041632584428924</v>
       </c>
       <c r="M16">
-        <v>1.052891119272683</v>
+        <v>1.051562320132855</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.051679194389921</v>
+        <v>1.050628876477145</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.045707280385568</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.044366235740245</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.024814612380838</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.014797983431274</v>
+        <v>1.013377662145036</v>
       </c>
       <c r="D17">
-        <v>1.03601549795524</v>
+        <v>1.03401468755322</v>
       </c>
       <c r="E17">
-        <v>1.029984605716613</v>
+        <v>1.028719368484375</v>
       </c>
       <c r="F17">
-        <v>1.040088079859754</v>
+        <v>1.03870441629271</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.056391596833052</v>
+        <v>1.055283244089185</v>
       </c>
       <c r="J17">
-        <v>1.041699138498095</v>
+        <v>1.040331288757314</v>
       </c>
       <c r="K17">
-        <v>1.049420198245135</v>
+        <v>1.047451490590997</v>
       </c>
       <c r="L17">
-        <v>1.043486557186808</v>
+        <v>1.042241908464782</v>
       </c>
       <c r="M17">
-        <v>1.053427924789694</v>
+        <v>1.052066222809276</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.051975550086164</v>
+        <v>1.050899119116926</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.046093586822463</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.04471812985601</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.024904680761215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.015416455249761</v>
+        <v>1.013991639490971</v>
       </c>
       <c r="D18">
-        <v>1.036363141054389</v>
+        <v>1.034349617446829</v>
       </c>
       <c r="E18">
-        <v>1.030359934955809</v>
+        <v>1.029091427835875</v>
       </c>
       <c r="F18">
-        <v>1.040320036912373</v>
+        <v>1.038929308034761</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.056493903003438</v>
+        <v>1.055379171988325</v>
       </c>
       <c r="J18">
-        <v>1.041909437739328</v>
+        <v>1.040536284904239</v>
       </c>
       <c r="K18">
-        <v>1.049582391708863</v>
+        <v>1.047600651271492</v>
       </c>
       <c r="L18">
-        <v>1.043674415692072</v>
+        <v>1.042426213503284</v>
       </c>
       <c r="M18">
-        <v>1.053477286810314</v>
+        <v>1.052108280482874</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.051779153832864</v>
+        <v>1.05069672702667</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.04619677544461</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.044810965939607</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.024911903818503</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.015394434450333</v>
+        <v>1.013989729280588</v>
       </c>
       <c r="D19">
-        <v>1.036256670116405</v>
+        <v>1.034263097185681</v>
       </c>
       <c r="E19">
-        <v>1.030208850217943</v>
+        <v>1.028960135566558</v>
       </c>
       <c r="F19">
-        <v>1.039992882026485</v>
+        <v>1.038618247015615</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.056386386515533</v>
+        <v>1.055283979674629</v>
       </c>
       <c r="J19">
-        <v>1.041756908491881</v>
+        <v>1.04040284207104</v>
       </c>
       <c r="K19">
-        <v>1.049416247205449</v>
+        <v>1.047453982748012</v>
       </c>
       <c r="L19">
-        <v>1.043463885412888</v>
+        <v>1.042235059463053</v>
       </c>
       <c r="M19">
-        <v>1.053094196076925</v>
+        <v>1.051740935025909</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624638</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.051154282693163</v>
+        <v>1.050083962663019</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.046085620904098</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.044714207832617</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.024850102948007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.013568253663785</v>
+        <v>1.012252206334977</v>
       </c>
       <c r="D20">
-        <v>1.03486610887223</v>
+        <v>1.032982717703238</v>
       </c>
       <c r="E20">
-        <v>1.028585791757703</v>
+        <v>1.027421265456148</v>
       </c>
       <c r="F20">
-        <v>1.038127380361199</v>
+        <v>1.036833281856739</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.055688483197606</v>
+        <v>1.054650195348224</v>
       </c>
       <c r="J20">
-        <v>1.040585978715897</v>
+        <v>1.039318861330258</v>
       </c>
       <c r="K20">
-        <v>1.048322386409004</v>
+        <v>1.046469381707229</v>
       </c>
       <c r="L20">
-        <v>1.042143952093673</v>
+        <v>1.040998493392228</v>
       </c>
       <c r="M20">
-        <v>1.051531375090814</v>
+        <v>1.050257972346382</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.049396316708255</v>
+        <v>1.048388564119476</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.045316109291574</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.044022337268526</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.024592327635293</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.009248078060662</v>
+        <v>1.008067997239993</v>
       </c>
       <c r="D21">
-        <v>1.031944988209103</v>
+        <v>1.03024953186864</v>
       </c>
       <c r="E21">
-        <v>1.025282173639397</v>
+        <v>1.024243919877275</v>
       </c>
       <c r="F21">
-        <v>1.034941386680377</v>
+        <v>1.033778842658888</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.054421611937563</v>
+        <v>1.05348962124098</v>
       </c>
       <c r="J21">
-        <v>1.038364165798515</v>
+        <v>1.03723222925004</v>
       </c>
       <c r="K21">
-        <v>1.046345414929605</v>
+        <v>1.044679618856616</v>
       </c>
       <c r="L21">
-        <v>1.039799892202288</v>
+        <v>1.038780094173677</v>
       </c>
       <c r="M21">
-        <v>1.049289701978945</v>
+        <v>1.048147329746624</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.047581849166974</v>
+        <v>1.046677746355191</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.043921536627507</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.04276045724648</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.024211726915672</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.006499549356004</v>
+        <v>1.005405453570934</v>
       </c>
       <c r="D22">
-        <v>1.030094591520554</v>
+        <v>1.028517623073939</v>
       </c>
       <c r="E22">
-        <v>1.023197904993221</v>
+        <v>1.022239264358869</v>
       </c>
       <c r="F22">
-        <v>1.03294813155811</v>
+        <v>1.031868660828241</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.053611630014647</v>
+        <v>1.052746522950874</v>
       </c>
       <c r="J22">
-        <v>1.036957097750876</v>
+        <v>1.035910215584367</v>
       </c>
       <c r="K22">
-        <v>1.045092548925626</v>
+        <v>1.043544546487387</v>
       </c>
       <c r="L22">
-        <v>1.038323401326957</v>
+        <v>1.037382666451688</v>
       </c>
       <c r="M22">
-        <v>1.047893967225148</v>
+        <v>1.046834169594306</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.046477228579052</v>
+        <v>1.045638476213933</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.043022382790754</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.041943282821998</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023969061922165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.007951843149248</v>
+        <v>1.00681242376247</v>
       </c>
       <c r="D23">
-        <v>1.031066692584167</v>
+        <v>1.02942705089582</v>
       </c>
       <c r="E23">
-        <v>1.02429672494782</v>
+        <v>1.02329617277069</v>
       </c>
       <c r="F23">
-        <v>1.033998874257786</v>
+        <v>1.032875561923566</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.054036565495289</v>
+        <v>1.053136145467634</v>
       </c>
       <c r="J23">
-        <v>1.037696432607931</v>
+        <v>1.036604751890207</v>
       </c>
       <c r="K23">
-        <v>1.045747688907835</v>
+        <v>1.044137402298233</v>
       </c>
       <c r="L23">
-        <v>1.039099716213721</v>
+        <v>1.038117372190225</v>
       </c>
       <c r="M23">
-        <v>1.048627675849394</v>
+        <v>1.047524313754104</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.047057904769371</v>
+        <v>1.046184674982985</v>
       </c>
       <c r="Q23">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.043476064180572</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.042351980537039</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.024094598669056</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.013581242048848</v>
+        <v>1.01226773462493</v>
       </c>
       <c r="D24">
-        <v>1.034853714066586</v>
+        <v>1.032972303129823</v>
       </c>
       <c r="E24">
-        <v>1.028574378745633</v>
+        <v>1.027412412700388</v>
       </c>
       <c r="F24">
-        <v>1.038091597296466</v>
+        <v>1.036799375296894</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.055671930103103</v>
+        <v>1.054634996122485</v>
       </c>
       <c r="J24">
-        <v>1.040566333487571</v>
+        <v>1.039301591298574</v>
       </c>
       <c r="K24">
-        <v>1.048295209662557</v>
+        <v>1.046444115345804</v>
       </c>
       <c r="L24">
-        <v>1.042117614082657</v>
+        <v>1.040974649865063</v>
       </c>
       <c r="M24">
-        <v>1.051481248172416</v>
+        <v>1.050209667341109</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.049316292187083</v>
+        <v>1.048309932648995</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.045269832220944</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.043974731116712</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.02458049858782</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.019910345006213</v>
+        <v>1.01840469399021</v>
       </c>
       <c r="D25">
-        <v>1.039131263358719</v>
+        <v>1.036980209260882</v>
       </c>
       <c r="E25">
-        <v>1.033413794675365</v>
+        <v>1.032073069001942</v>
       </c>
       <c r="F25">
-        <v>1.042726299068916</v>
+        <v>1.041246476428619</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.05747206023828</v>
+        <v>1.056282483814474</v>
       </c>
       <c r="J25">
-        <v>1.043785735959204</v>
+        <v>1.042328154548655</v>
       </c>
       <c r="K25">
-        <v>1.051151036254049</v>
+        <v>1.049030350597892</v>
       </c>
       <c r="L25">
-        <v>1.045514638926704</v>
+        <v>1.044193088776066</v>
       </c>
       <c r="M25">
-        <v>1.05469567054413</v>
+        <v>1.053236541394443</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.051860257015507</v>
+        <v>1.050705471066574</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.047286173203357</v>
+        <v>1.045800156109979</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.025114977120269</v>
       </c>
     </row>
   </sheetData>
